--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>trideni</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>5. 1. 2021</t>
+  </si>
+  <si>
+    <t>26. 1. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -191,10 +194,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:X77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +580,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,16 +650,19 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>0.21</v>
@@ -718,16 +724,19 @@
       <c r="W2" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>0.29</v>
@@ -789,16 +798,19 @@
       <c r="W3" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
@@ -860,16 +872,19 @@
       <c r="W4" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>0.24</v>
@@ -931,16 +946,19 @@
       <c r="W5" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>0.32</v>
@@ -1002,16 +1020,19 @@
       <c r="W6" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>0.4399999999999999</v>
@@ -1073,16 +1094,19 @@
       <c r="W7" t="n">
         <v>0.3400000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>0.2</v>
@@ -1144,16 +1168,19 @@
       <c r="W8" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
         <v>0.27</v>
@@ -1215,16 +1242,19 @@
       <c r="W9" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>0.53</v>
@@ -1286,16 +1316,19 @@
       <c r="W10" t="n">
         <v>0.4299999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>0.4299999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>0.21</v>
@@ -1357,16 +1390,19 @@
       <c r="W11" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>0.28</v>
@@ -1428,16 +1464,19 @@
       <c r="W12" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>0.51</v>
@@ -1499,31 +1538,34 @@
       <c r="W13" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>0.23</v>
       </c>
       <c r="E14" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="F14" t="n">
         <v>0.25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="H14" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I14" t="n">
         <v>0.32</v>
@@ -1544,10 +1586,10 @@
         <v>0.2</v>
       </c>
       <c r="O14" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="P14" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="Q14" t="n">
         <v>0.2</v>
@@ -1556,7 +1598,7 @@
         <v>0.16</v>
       </c>
       <c r="S14" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="T14" t="n">
         <v>0.22</v>
@@ -1568,60 +1610,63 @@
         <v>0.18</v>
       </c>
       <c r="W14" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>0.2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
       </c>
       <c r="E15" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="F15" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="H15" t="n">
         <v>0.46</v>
       </c>
       <c r="I15" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="J15" t="n">
         <v>0.44</v>
       </c>
       <c r="K15" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="L15" t="n">
         <v>0.39</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="N15" t="n">
         <v>0.43</v>
       </c>
       <c r="O15" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="P15" t="n">
         <v>0.42</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="R15" t="n">
         <v>0.32</v>
@@ -1630,10 +1675,10 @@
         <v>0.34</v>
       </c>
       <c r="T15" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="U15" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="V15" t="n">
         <v>0.35</v>
@@ -1641,87 +1686,93 @@
       <c r="W15" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>0.59</v>
       </c>
       <c r="E16" t="n">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="F16" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="G16" t="n">
         <v>0.35</v>
       </c>
       <c r="H16" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I16" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="J16" t="n">
         <v>0.22</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="L16" t="n">
         <v>0.3200000000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="N16" t="n">
         <v>0.37</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4</v>
+        <v>0.4099999999999999</v>
       </c>
       <c r="P16" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="R16" t="n">
         <v>0.52</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="T16" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="U16" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.4099999999999999</v>
       </c>
       <c r="V16" t="n">
         <v>0.47</v>
       </c>
       <c r="W16" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
@@ -1751,7 +1802,7 @@
         <v>0.3</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="N17" t="n">
         <v>0.27</v>
@@ -1778,21 +1829,24 @@
         <v>0.23</v>
       </c>
       <c r="V17" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="W17" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>0.17</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0.38</v>
@@ -1804,7 +1858,7 @@
         <v>0.49</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H18" t="n">
         <v>0.41</v>
@@ -1834,7 +1888,7 @@
         <v>0.43</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="R18" t="n">
         <v>0.33</v>
@@ -1854,16 +1908,19 @@
       <c r="W18" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0.45</v>
@@ -1875,7 +1932,7 @@
         <v>0.35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="H19" t="n">
         <v>0.29</v>
@@ -1893,7 +1950,7 @@
         <v>0.29</v>
       </c>
       <c r="M19" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="N19" t="n">
         <v>0.3100000000000001</v>
@@ -1905,7 +1962,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.45</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="R19" t="n">
         <v>0.52</v>
@@ -1920,21 +1977,24 @@
         <v>0.41</v>
       </c>
       <c r="V19" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="W19" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="X19" t="n">
         <v>0.51</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>0.22</v>
@@ -1973,7 +2033,7 @@
         <v>0.24</v>
       </c>
       <c r="P20" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="Q20" t="n">
         <v>0.18</v>
@@ -1996,16 +2056,19 @@
       <c r="W20" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>0.28</v>
@@ -2067,16 +2130,19 @@
       <c r="W21" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0.5</v>
@@ -2115,7 +2181,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="Q22" t="n">
         <v>0.4399999999999999</v>
@@ -2138,16 +2204,19 @@
       <c r="W22" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
         <v>0.31</v>
@@ -2209,16 +2278,19 @@
       <c r="W23" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
         <v>0.32</v>
@@ -2280,16 +2352,19 @@
       <c r="W24" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
         <v>0.37</v>
@@ -2351,16 +2426,19 @@
       <c r="W25" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -2422,16 +2500,19 @@
       <c r="W26" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
         <v>0.26</v>
@@ -2493,16 +2574,19 @@
       <c r="W27" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -2564,16 +2648,19 @@
       <c r="W28" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
         <v>0.22</v>
@@ -2635,16 +2722,19 @@
       <c r="W29" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
         <v>0.27</v>
@@ -2706,16 +2796,19 @@
       <c r="W30" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>0.51</v>
@@ -2777,16 +2870,19 @@
       <c r="W31" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
         <v>0.17</v>
@@ -2848,16 +2944,19 @@
       <c r="W32" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
         <v>0.3</v>
@@ -2919,16 +3018,19 @@
       <c r="W33" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
         <v>0.53</v>
@@ -2990,16 +3092,19 @@
       <c r="W34" t="n">
         <v>0.4399999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" t="n">
+        <v>0.4299999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
         <v>0.25</v>
@@ -3061,16 +3166,19 @@
       <c r="W35" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="n">
         <v>0.27</v>
@@ -3132,16 +3240,19 @@
       <c r="W36" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>0.48</v>
@@ -3203,16 +3314,19 @@
       <c r="W37" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="n">
         <v>0.24</v>
@@ -3274,16 +3388,19 @@
       <c r="W38" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -3345,16 +3462,19 @@
       <c r="W39" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
         <v>0.45</v>
@@ -3416,16 +3536,19 @@
       <c r="W40" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" t="n">
         <v>0.15</v>
@@ -3487,16 +3610,19 @@
       <c r="W41" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
         <v>0.22</v>
@@ -3558,16 +3684,19 @@
       <c r="W42" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -3629,16 +3758,19 @@
       <c r="W43" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" t="n">
         <v>0.22</v>
@@ -3700,16 +3832,19 @@
       <c r="W44" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -3771,16 +3906,19 @@
       <c r="W45" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
         <v>0.49</v>
@@ -3842,16 +3980,19 @@
       <c r="W46" t="n">
         <v>0.4399999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46" t="n">
+        <v>0.4400000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" t="n">
         <v>0.21</v>
@@ -3913,16 +4054,19 @@
       <c r="W47" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="n">
         <v>0.26</v>
@@ -3984,16 +4128,19 @@
       <c r="W48" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
         <v>0.53</v>
@@ -4055,16 +4202,19 @@
       <c r="W49" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" t="n">
         <v>0.11</v>
@@ -4126,16 +4276,19 @@
       <c r="W50" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
         <v>0.18</v>
@@ -4197,16 +4350,19 @@
       <c r="W51" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
         <v>0.71</v>
@@ -4268,16 +4424,19 @@
       <c r="W52" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52" t="n">
+        <v>0.4299999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" t="n">
         <v>0.17</v>
@@ -4339,16 +4498,19 @@
       <c r="W53" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
         <v>0.31</v>
@@ -4410,16 +4572,19 @@
       <c r="W54" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" t="n">
         <v>0.52</v>
@@ -4481,16 +4646,19 @@
       <c r="W55" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" t="n">
         <v>0.25</v>
@@ -4552,16 +4720,19 @@
       <c r="W56" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -4623,16 +4794,19 @@
       <c r="W57" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
         <v>0.4399999999999999</v>
@@ -4694,16 +4868,19 @@
       <c r="W58" t="n">
         <v>0.4199999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58" t="n">
+        <v>0.4299999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D59" t="n">
         <v>0.32</v>
@@ -4765,16 +4942,19 @@
       <c r="W59" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" t="n">
         <v>0.34</v>
@@ -4836,16 +5016,19 @@
       <c r="W60" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" t="n">
         <v>0.34</v>
@@ -4907,16 +5090,19 @@
       <c r="W61" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61" t="n">
+        <v>0.3200000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D62" t="n">
         <v>0.3</v>
@@ -4978,16 +5164,19 @@
       <c r="W62" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" t="n">
         <v>0.3</v>
@@ -5049,16 +5238,19 @@
       <c r="W63" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -5120,16 +5312,19 @@
       <c r="W64" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D65" t="n">
         <v>0.31</v>
@@ -5191,16 +5386,19 @@
       <c r="W65" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" t="n">
         <v>0.32</v>
@@ -5262,16 +5460,19 @@
       <c r="W66" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
         <v>0.37</v>
@@ -5333,16 +5534,19 @@
       <c r="W67" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67" t="n">
+        <v>0.4400000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D68" t="n">
         <v>0.16</v>
@@ -5404,16 +5608,19 @@
       <c r="W68" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" t="n">
         <v>0.29</v>
@@ -5475,16 +5682,19 @@
       <c r="W69" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" t="n">
         <v>0.55</v>
@@ -5546,16 +5756,19 @@
       <c r="W70" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D71" t="n">
         <v>0.09</v>
@@ -5617,16 +5830,19 @@
       <c r="W71" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D72" t="n">
         <v>0.24</v>
@@ -5688,16 +5904,19 @@
       <c r="W72" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" t="n">
         <v>0.67</v>
@@ -5759,16 +5978,19 @@
       <c r="W73" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D74" t="n">
         <v>0.13</v>
@@ -5830,16 +6052,19 @@
       <c r="W74" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D75" t="n">
         <v>0.25</v>
@@ -5901,16 +6126,19 @@
       <c r="W75" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" t="n">
         <v>0.62</v>
@@ -5972,10 +6200,13 @@
       <c r="W76" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76" t="n">
+        <v>0.5900000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5989,7 +6220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5997,7 +6228,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6064,13 +6295,16 @@
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -6132,13 +6366,16 @@
       <c r="V2" t="n">
         <v>2186</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -6200,13 +6437,16 @@
       <c r="V3" t="n">
         <v>522</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -6268,13 +6508,16 @@
       <c r="V4" t="n">
         <v>804</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -6336,81 +6579,87 @@
       <c r="V5" t="n">
         <v>860</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G6" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I6" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J6" t="n">
+        <v>79</v>
+      </c>
+      <c r="K6" t="n">
         <v>83</v>
       </c>
-      <c r="K6" t="n">
-        <v>86</v>
-      </c>
       <c r="L6" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N6" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O6" t="n">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="P6" t="n">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="Q6" t="n">
+        <v>566</v>
+      </c>
+      <c r="R6" t="n">
+        <v>668</v>
+      </c>
+      <c r="S6" t="n">
+        <v>689</v>
+      </c>
+      <c r="T6" t="n">
+        <v>643</v>
+      </c>
+      <c r="U6" t="n">
         <v>595</v>
       </c>
-      <c r="R6" t="n">
-        <v>689</v>
-      </c>
-      <c r="S6" t="n">
-        <v>706</v>
-      </c>
-      <c r="T6" t="n">
-        <v>656</v>
-      </c>
-      <c r="U6" t="n">
-        <v>608</v>
-      </c>
       <c r="V6" t="n">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>640</v>
+      </c>
+      <c r="W6" t="n">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
         <v>102</v>
@@ -6422,131 +6671,137 @@
         <v>246</v>
       </c>
       <c r="F7" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G7" t="n">
         <v>265</v>
       </c>
       <c r="H7" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I7" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J7" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K7" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L7" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M7" t="n">
         <v>281</v>
       </c>
       <c r="N7" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O7" t="n">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="P7" t="n">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="Q7" t="n">
+        <v>777</v>
+      </c>
+      <c r="R7" t="n">
+        <v>790</v>
+      </c>
+      <c r="S7" t="n">
         <v>753</v>
       </c>
-      <c r="R7" t="n">
-        <v>774</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
+        <v>656</v>
+      </c>
+      <c r="U7" t="n">
+        <v>645</v>
+      </c>
+      <c r="V7" t="n">
         <v>740</v>
       </c>
-      <c r="T7" t="n">
-        <v>646</v>
-      </c>
-      <c r="U7" t="n">
-        <v>635</v>
-      </c>
-      <c r="V7" t="n">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
         <v>2988</v>
       </c>
       <c r="D8" t="n">
-        <v>2369</v>
+        <v>2374</v>
       </c>
       <c r="E8" t="n">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="F8" t="n">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="G8" t="n">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="H8" t="n">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I8" t="n">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="J8" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="K8" t="n">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="L8" t="n">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="M8" t="n">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="N8" t="n">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="O8" t="n">
-        <v>1462</v>
+        <v>1474</v>
       </c>
       <c r="P8" t="n">
-        <v>1238</v>
+        <v>1247</v>
       </c>
       <c r="Q8" t="n">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="R8" t="n">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="S8" t="n">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="T8" t="n">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="U8" t="n">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="V8" t="n">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>806</v>
+      </c>
+      <c r="W8" t="n">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
         <v>1514</v>
@@ -6608,13 +6863,16 @@
       <c r="V9" t="n">
         <v>1056</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>1587</v>
@@ -6676,13 +6934,16 @@
       <c r="V10" t="n">
         <v>1130</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
         <v>1726</v>
@@ -6744,13 +7005,16 @@
       <c r="V11" t="n">
         <v>1138</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="n">
         <v>667</v>
@@ -6812,13 +7076,16 @@
       <c r="V12" t="n">
         <v>501</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n">
         <v>333</v>
@@ -6880,13 +7147,16 @@
       <c r="V13" t="n">
         <v>258</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="n">
         <v>375</v>
@@ -6948,13 +7218,16 @@
       <c r="V14" t="n">
         <v>289</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="n">
         <v>93</v>
@@ -7016,13 +7289,16 @@
       <c r="V15" t="n">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>224</v>
@@ -7084,13 +7360,16 @@
       <c r="V16" t="n">
         <v>156</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
         <v>139</v>
@@ -7152,13 +7431,16 @@
       <c r="V17" t="n">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
         <v>28</v>
@@ -7220,13 +7502,16 @@
       <c r="V18" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
         <v>436</v>
@@ -7288,13 +7573,16 @@
       <c r="V19" t="n">
         <v>305</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>861</v>
@@ -7356,13 +7644,16 @@
       <c r="V20" t="n">
         <v>592</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="n">
         <v>388</v>
@@ -7424,13 +7715,16 @@
       <c r="V21" t="n">
         <v>263</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="n">
         <v>587</v>
@@ -7492,13 +7786,16 @@
       <c r="V22" t="n">
         <v>412</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="n">
         <v>539</v>
@@ -7560,13 +7857,16 @@
       <c r="V23" t="n">
         <v>381</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="n">
         <v>358</v>
@@ -7628,13 +7928,16 @@
       <c r="V24" t="n">
         <v>259</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="n">
         <v>562</v>
@@ -7696,13 +7999,16 @@
       <c r="V25" t="n">
         <v>392</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="n">
         <v>667</v>
@@ -7764,10 +8070,13 @@
       <c r="V26" t="n">
         <v>479</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -7790,6 +8099,7 @@
       <c r="T27" t="s"/>
       <c r="U27" t="s"/>
       <c r="V27" t="s"/>
+      <c r="W27" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>trideni</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>26. 1. 2021</t>
+  </si>
+  <si>
+    <t>16. 2. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -179,7 +182,7 @@
     <t>Muž, 18–34 let</t>
   </si>
   <si>
-    <t>Muž, 35–44 let</t>
+    <t>Muž, 35–54 let</t>
   </si>
   <si>
     <t>Muž, 55 a více let</t>
@@ -188,16 +191,16 @@
     <t>Žena, 18–34 let</t>
   </si>
   <si>
-    <t>Žena, 35–44 let</t>
+    <t>Žena, 35–54 let</t>
   </si>
   <si>
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X77"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +583,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,16 +656,19 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>0.21</v>
@@ -727,16 +733,19 @@
       <c r="X2" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>0.29</v>
@@ -801,16 +810,19 @@
       <c r="X3" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
@@ -822,7 +834,7 @@
         <v>0.38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3099999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="H4" t="n">
         <v>0.26</v>
@@ -849,7 +861,7 @@
         <v>0.36</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="Q4" t="n">
         <v>0.45</v>
@@ -858,13 +870,13 @@
         <v>0.48</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="T4" t="n">
         <v>0.39</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="V4" t="n">
         <v>0.45</v>
@@ -875,16 +887,19 @@
       <c r="X4" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>0.24</v>
@@ -949,16 +964,19 @@
       <c r="X5" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
         <v>0.32</v>
@@ -1023,19 +1041,22 @@
       <c r="X6" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="E7" t="n">
         <v>0.4</v>
@@ -1050,19 +1071,19 @@
         <v>0.17</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="L7" t="n">
         <v>0.22</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="N7" t="n">
         <v>0.21</v>
@@ -1080,7 +1101,7 @@
         <v>0.38</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="T7" t="n">
         <v>0.26</v>
@@ -1092,21 +1113,24 @@
         <v>0.36</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="X7" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>0.2</v>
@@ -1171,16 +1195,19 @@
       <c r="X8" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>0.27</v>
@@ -1245,16 +1272,19 @@
       <c r="X9" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>0.53</v>
@@ -1278,7 +1308,7 @@
         <v>0.17</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="L10" t="n">
         <v>0.26</v>
@@ -1290,7 +1320,7 @@
         <v>0.27</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="P10" t="n">
         <v>0.3</v>
@@ -1302,7 +1332,7 @@
         <v>0.49</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="T10" t="n">
         <v>0.37</v>
@@ -1311,24 +1341,27 @@
         <v>0.4</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4299999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>0.43</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
         <v>0.21</v>
@@ -1393,16 +1426,19 @@
       <c r="X11" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>0.28</v>
@@ -1467,22 +1503,25 @@
       <c r="X12" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
       </c>
       <c r="D13" t="n">
         <v>0.51</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="F13" t="n">
         <v>0.47</v>
@@ -1491,10 +1530,10 @@
         <v>0.36</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="J13" t="n">
         <v>0.24</v>
@@ -1503,16 +1542,16 @@
         <v>0.27</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="M13" t="n">
         <v>0.29</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="P13" t="n">
         <v>0.38</v>
@@ -1541,16 +1580,19 @@
       <c r="X13" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>0.23</v>
@@ -1615,16 +1657,19 @@
       <c r="X14" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1689,16 +1734,19 @@
       <c r="X15" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
         <v>0.59</v>
@@ -1725,7 +1773,7 @@
         <v>0.2</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="M16" t="n">
         <v>0.26</v>
@@ -1734,7 +1782,7 @@
         <v>0.37</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="P16" t="n">
         <v>0.37</v>
@@ -1746,33 +1794,36 @@
         <v>0.52</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="T16" t="n">
         <v>0.4</v>
       </c>
       <c r="U16" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="V16" t="n">
         <v>0.47</v>
       </c>
       <c r="W16" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="X16" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
@@ -1837,16 +1888,19 @@
       <c r="X17" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>0.38</v>
@@ -1911,16 +1965,19 @@
       <c r="X18" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
         <v>0.45</v>
@@ -1953,16 +2010,16 @@
         <v>0.21</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="O19" t="n">
         <v>0.34</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="R19" t="n">
         <v>0.52</v>
@@ -1985,16 +2042,19 @@
       <c r="X19" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>0.22</v>
@@ -2059,16 +2119,19 @@
       <c r="X20" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>0.28</v>
@@ -2133,16 +2196,19 @@
       <c r="X21" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>0.5</v>
@@ -2154,7 +2220,7 @@
         <v>0.38</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3099999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="H22" t="n">
         <v>0.26</v>
@@ -2178,16 +2244,16 @@
         <v>0.27</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="S22" t="n">
         <v>0.4</v>
@@ -2199,7 +2265,7 @@
         <v>0.39</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="W22" t="n">
         <v>0.39</v>
@@ -2207,16 +2273,19 @@
       <c r="X22" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>0.31</v>
@@ -2281,16 +2350,19 @@
       <c r="X23" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
         <v>0.32</v>
@@ -2355,16 +2427,19 @@
       <c r="X24" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
         <v>0.37</v>
@@ -2388,7 +2463,7 @@
         <v>0.16</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="L25" t="n">
         <v>0.23</v>
@@ -2409,13 +2484,13 @@
         <v>0.39</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="U25" t="n">
         <v>0.34</v>
@@ -2429,16 +2504,19 @@
       <c r="X25" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -2503,16 +2581,19 @@
       <c r="X26" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
         <v>0.26</v>
@@ -2577,16 +2658,19 @@
       <c r="X27" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -2601,7 +2685,7 @@
         <v>0.35</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I28" t="n">
         <v>0.3</v>
@@ -2613,13 +2697,13 @@
         <v>0.25</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="M28" t="n">
         <v>0.27</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="O28" t="n">
         <v>0.4</v>
@@ -2651,16 +2735,19 @@
       <c r="X28" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
         <v>0.22</v>
@@ -2725,16 +2812,19 @@
       <c r="X29" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
         <v>0.27</v>
@@ -2799,16 +2889,19 @@
       <c r="X30" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
         <v>0.51</v>
@@ -2832,7 +2925,7 @@
         <v>0.21</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="L31" t="n">
         <v>0.26</v>
@@ -2844,10 +2937,10 @@
         <v>0.28</v>
       </c>
       <c r="O31" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="P31" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="Q31" t="n">
         <v>0.45</v>
@@ -2856,7 +2949,7 @@
         <v>0.48</v>
       </c>
       <c r="S31" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="T31" t="n">
         <v>0.39</v>
@@ -2873,16 +2966,19 @@
       <c r="X31" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="n">
         <v>0.17</v>
@@ -2947,16 +3043,19 @@
       <c r="X32" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
         <v>0.3</v>
@@ -3021,16 +3120,19 @@
       <c r="X33" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
         <v>0.53</v>
@@ -3090,21 +3192,24 @@
         <v>0.48</v>
       </c>
       <c r="W34" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="X34" t="n">
-        <v>0.4299999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+        <v>0.43</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="n">
         <v>0.25</v>
@@ -3169,16 +3274,19 @@
       <c r="X35" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
         <v>0.27</v>
@@ -3243,16 +3351,19 @@
       <c r="X36" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
         <v>0.48</v>
@@ -3279,7 +3390,7 @@
         <v>0.2</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="M37" t="n">
         <v>0.23</v>
@@ -3309,24 +3420,27 @@
         <v>0.39</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="W37" t="n">
         <v>0.47</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4399999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>0.44</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
         <v>0.24</v>
@@ -3391,16 +3505,19 @@
       <c r="X38" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -3465,16 +3582,19 @@
       <c r="X39" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
         <v>0.45</v>
@@ -3486,7 +3606,7 @@
         <v>0.35</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3099999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="H40" t="n">
         <v>0.28</v>
@@ -3495,7 +3615,7 @@
         <v>0.25</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="K40" t="n">
         <v>0.24</v>
@@ -3507,7 +3627,7 @@
         <v>0.25</v>
       </c>
       <c r="N40" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="O40" t="n">
         <v>0.39</v>
@@ -3516,7 +3636,7 @@
         <v>0.34</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="R40" t="n">
         <v>0.5</v>
@@ -3528,7 +3648,7 @@
         <v>0.38</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="V40" t="n">
         <v>0.41</v>
@@ -3537,18 +3657,21 @@
         <v>0.39</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4399999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+        <v>0.44</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" t="n">
         <v>0.15</v>
@@ -3613,16 +3736,19 @@
       <c r="X41" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
         <v>0.22</v>
@@ -3687,16 +3813,19 @@
       <c r="X42" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -3717,7 +3846,7 @@
         <v>0.38</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="K43" t="n">
         <v>0.3</v>
@@ -3761,16 +3890,19 @@
       <c r="X43" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
         <v>0.22</v>
@@ -3835,16 +3967,19 @@
       <c r="X44" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Y44" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -3909,16 +4044,19 @@
       <c r="X45" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Y45" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
         <v>0.49</v>
@@ -3927,7 +4065,7 @@
         <v>0.51</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="G46" t="n">
         <v>0.24</v>
@@ -3942,13 +4080,13 @@
         <v>0.12</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="L46" t="n">
         <v>0.25</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="N46" t="n">
         <v>0.2</v>
@@ -3960,13 +4098,13 @@
         <v>0.23</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="R46" t="n">
         <v>0.51</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="T46" t="n">
         <v>0.33</v>
@@ -3978,21 +4116,24 @@
         <v>0.39</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4400000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+        <v>0.44</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" t="n">
         <v>0.21</v>
@@ -4057,16 +4198,19 @@
       <c r="X47" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="Y47" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
         <v>0.26</v>
@@ -4131,16 +4275,19 @@
       <c r="X48" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="Y48" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
         <v>0.53</v>
@@ -4167,19 +4314,19 @@
         <v>0.2</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="O49" t="n">
         <v>0.36</v>
       </c>
       <c r="P49" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="Q49" t="n">
         <v>0.54</v>
@@ -4188,7 +4335,7 @@
         <v>0.45</v>
       </c>
       <c r="S49" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="T49" t="n">
         <v>0.52</v>
@@ -4205,16 +4352,19 @@
       <c r="X49" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Y49" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
         <v>0.11</v>
@@ -4279,16 +4429,19 @@
       <c r="X50" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Y50" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" t="n">
         <v>0.18</v>
@@ -4353,34 +4506,37 @@
       <c r="X51" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="Y51" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="n">
         <v>0.71</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6100000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="G52" t="n">
         <v>0.25</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3600000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="J52" t="n">
         <v>0.16</v>
@@ -4389,16 +4545,16 @@
         <v>0.29</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="M52" t="n">
         <v>0.22</v>
       </c>
       <c r="N52" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="O52" t="n">
-        <v>0.3899999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="P52" t="n">
         <v>0.36</v>
@@ -4407,16 +4563,16 @@
         <v>0.5</v>
       </c>
       <c r="R52" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="S52" t="n">
         <v>0.72</v>
       </c>
       <c r="T52" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="U52" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="V52" t="n">
         <v>0.47</v>
@@ -4425,18 +4581,21 @@
         <v>0.35</v>
       </c>
       <c r="X52" t="n">
-        <v>0.4299999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+        <v>0.43</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
         <v>0.17</v>
@@ -4501,16 +4660,19 @@
       <c r="X53" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="Y53" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
         <v>0.31</v>
@@ -4575,16 +4737,19 @@
       <c r="X54" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="Y54" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
         <v>0.52</v>
@@ -4593,7 +4758,7 @@
         <v>0.47</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="G55" t="n">
         <v>0.25</v>
@@ -4605,7 +4770,7 @@
         <v>0.21</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="K55" t="n">
         <v>0.18</v>
@@ -4614,7 +4779,7 @@
         <v>0.21</v>
       </c>
       <c r="M55" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="N55" t="n">
         <v>0.25</v>
@@ -4629,7 +4794,7 @@
         <v>0.39</v>
       </c>
       <c r="R55" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="S55" t="n">
         <v>0.42</v>
@@ -4638,7 +4803,7 @@
         <v>0.32</v>
       </c>
       <c r="U55" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="V55" t="n">
         <v>0.37</v>
@@ -4649,16 +4814,19 @@
       <c r="X55" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="Y55" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" t="n">
         <v>0.25</v>
@@ -4723,16 +4891,19 @@
       <c r="X56" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Y56" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -4797,25 +4968,28 @@
       <c r="X57" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Y57" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="E58" t="n">
         <v>0.45</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G58" t="n">
         <v>0.28</v>
@@ -4827,10 +5001,10 @@
         <v>0.23</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="L58" t="n">
         <v>0.27</v>
@@ -4866,21 +5040,24 @@
         <v>0.45</v>
       </c>
       <c r="W58" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="X58" t="n">
-        <v>0.4299999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+        <v>0.43</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" t="n">
         <v>0.32</v>
@@ -4945,16 +5122,19 @@
       <c r="X59" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="Y59" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" t="n">
         <v>0.34</v>
@@ -5019,16 +5199,19 @@
       <c r="X60" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="Y60" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
         <v>0.34</v>
@@ -5043,10 +5226,10 @@
         <v>0.21</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="J61" t="n">
         <v>0.18</v>
@@ -5058,7 +5241,7 @@
         <v>0.2</v>
       </c>
       <c r="M61" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="N61" t="n">
         <v>0.23</v>
@@ -5073,10 +5256,10 @@
         <v>0.36</v>
       </c>
       <c r="R61" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="S61" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="T61" t="n">
         <v>0.23</v>
@@ -5085,24 +5268,27 @@
         <v>0.25</v>
       </c>
       <c r="V61" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="W61" t="n">
         <v>0.3</v>
       </c>
       <c r="X61" t="n">
-        <v>0.3200000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+        <v>0.32</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D62" t="n">
         <v>0.3</v>
@@ -5167,16 +5353,19 @@
       <c r="X62" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="Y62" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" t="n">
         <v>0.3</v>
@@ -5241,16 +5430,19 @@
       <c r="X63" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="Y63" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -5265,10 +5457,10 @@
         <v>0.23</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="J64" t="n">
         <v>0.13</v>
@@ -5280,7 +5472,7 @@
         <v>0.21</v>
       </c>
       <c r="M64" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="N64" t="n">
         <v>0.24</v>
@@ -5295,10 +5487,10 @@
         <v>0.39</v>
       </c>
       <c r="R64" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="S64" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="T64" t="n">
         <v>0.33</v>
@@ -5315,16 +5507,19 @@
       <c r="X64" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="Y64" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" t="n">
         <v>0.31</v>
@@ -5389,16 +5584,19 @@
       <c r="X65" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="Y65" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
         <v>0.32</v>
@@ -5463,16 +5661,19 @@
       <c r="X66" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="Y66" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
         <v>0.37</v>
@@ -5493,7 +5694,7 @@
         <v>0.26</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="K67" t="n">
         <v>0.22</v>
@@ -5514,7 +5715,7 @@
         <v>0.29</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="R67" t="n">
         <v>0.5</v>
@@ -5523,7 +5724,7 @@
         <v>0.46</v>
       </c>
       <c r="T67" t="n">
-        <v>0.3899999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="U67" t="n">
         <v>0.4</v>
@@ -5535,18 +5736,21 @@
         <v>0.46</v>
       </c>
       <c r="X67" t="n">
-        <v>0.4400000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+        <v>0.44</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" t="n">
         <v>0.16</v>
@@ -5611,16 +5815,19 @@
       <c r="X68" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="Y68" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" t="n">
         <v>0.29</v>
@@ -5685,16 +5892,19 @@
       <c r="X69" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="Y69" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" t="n">
         <v>0.55</v>
@@ -5718,7 +5928,7 @@
         <v>0.2</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="L70" t="n">
         <v>0.22</v>
@@ -5727,7 +5937,7 @@
         <v>0.2</v>
       </c>
       <c r="N70" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="O70" t="n">
         <v>0.29</v>
@@ -5748,10 +5958,10 @@
         <v>0.3</v>
       </c>
       <c r="U70" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="V70" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="W70" t="n">
         <v>0.39</v>
@@ -5759,16 +5969,19 @@
       <c r="X70" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="Y70" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D71" t="n">
         <v>0.09</v>
@@ -5833,16 +6046,19 @@
       <c r="X71" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="Y71" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" t="n">
         <v>0.24</v>
@@ -5907,16 +6123,19 @@
       <c r="X72" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="Y72" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" t="n">
         <v>0.67</v>
@@ -5925,19 +6144,19 @@
         <v>0.61</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="G73" t="n">
         <v>0.34</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="K73" t="n">
         <v>0.22</v>
@@ -5961,7 +6180,7 @@
         <v>0.51</v>
       </c>
       <c r="R73" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="S73" t="n">
         <v>0.47</v>
@@ -5981,16 +6200,19 @@
       <c r="X73" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="Y73" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74" t="n">
         <v>0.13</v>
@@ -6055,16 +6277,19 @@
       <c r="X74" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Y74" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" t="n">
         <v>0.25</v>
@@ -6129,28 +6354,31 @@
       <c r="X75" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="Y75" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D76" t="n">
         <v>0.62</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="F76" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="H76" t="n">
         <v>0.37</v>
@@ -6168,7 +6396,7 @@
         <v>0.35</v>
       </c>
       <c r="M76" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="N76" t="n">
         <v>0.4</v>
@@ -6177,13 +6405,13 @@
         <v>0.47</v>
       </c>
       <c r="P76" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="Q76" t="n">
         <v>0.55</v>
       </c>
       <c r="R76" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="S76" t="n">
         <v>0.54</v>
@@ -6201,12 +6429,15 @@
         <v>0.6</v>
       </c>
       <c r="X76" t="n">
-        <v>0.5900000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
+        <v>0.59</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6220,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6228,7 +6459,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6298,13 +6529,16 @@
       <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -6369,13 +6603,16 @@
       <c r="W2" t="n">
         <v>2131</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -6440,13 +6677,16 @@
       <c r="W3" t="n">
         <v>501</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -6511,13 +6751,16 @@
       <c r="W4" t="n">
         <v>781</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -6582,13 +6825,16 @@
       <c r="W5" t="n">
         <v>849</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>11</v>
@@ -6653,13 +6899,16 @@
       <c r="W6" t="n">
         <v>648</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>102</v>
@@ -6724,13 +6973,16 @@
       <c r="W7" t="n">
         <v>711</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
         <v>2988</v>
@@ -6795,13 +7047,16 @@
       <c r="W8" t="n">
         <v>772</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>1514</v>
@@ -6866,13 +7121,16 @@
       <c r="W9" t="n">
         <v>1040</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
         <v>1587</v>
@@ -6937,13 +7195,16 @@
       <c r="W10" t="n">
         <v>1091</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>1726</v>
@@ -7008,13 +7269,16 @@
       <c r="W11" t="n">
         <v>1106</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n">
         <v>667</v>
@@ -7079,13 +7343,16 @@
       <c r="W12" t="n">
         <v>493</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="n">
         <v>333</v>
@@ -7150,13 +7417,16 @@
       <c r="W13" t="n">
         <v>250</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
         <v>375</v>
@@ -7221,13 +7491,16 @@
       <c r="W14" t="n">
         <v>282</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="n">
         <v>93</v>
@@ -7292,13 +7565,16 @@
       <c r="W15" t="n">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
         <v>224</v>
@@ -7363,13 +7639,16 @@
       <c r="W16" t="n">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
         <v>139</v>
@@ -7434,13 +7713,16 @@
       <c r="W17" t="n">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
         <v>28</v>
@@ -7505,13 +7787,16 @@
       <c r="W18" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
         <v>436</v>
@@ -7576,13 +7861,16 @@
       <c r="W19" t="n">
         <v>296</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
         <v>861</v>
@@ -7647,13 +7935,16 @@
       <c r="W20" t="n">
         <v>572</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="n">
         <v>388</v>
@@ -7718,13 +8009,16 @@
       <c r="W21" t="n">
         <v>258</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="n">
         <v>587</v>
@@ -7789,13 +8083,16 @@
       <c r="W22" t="n">
         <v>402</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="n">
         <v>539</v>
@@ -7860,13 +8157,16 @@
       <c r="W23" t="n">
         <v>380</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="n">
         <v>358</v>
@@ -7931,13 +8231,16 @@
       <c r="W24" t="n">
         <v>244</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" t="n">
         <v>562</v>
@@ -8002,13 +8305,16 @@
       <c r="W25" t="n">
         <v>379</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="n">
         <v>667</v>
@@ -8073,10 +8379,13 @@
       <c r="W26" t="n">
         <v>468</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -8100,6 +8409,7 @@
       <c r="U27" t="s"/>
       <c r="V27" t="s"/>
       <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>trideni</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>16. 2. 2021</t>
+  </si>
+  <si>
+    <t>2. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -197,10 +200,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +586,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,16 +662,19 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>0.21</v>
@@ -736,16 +742,19 @@
       <c r="Y2" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>0.29</v>
@@ -813,16 +822,19 @@
       <c r="Y3" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
@@ -890,16 +902,19 @@
       <c r="Y4" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>0.24</v>
@@ -967,16 +982,19 @@
       <c r="Y5" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>0.32</v>
@@ -1044,16 +1062,19 @@
       <c r="Y6" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>0.44</v>
@@ -1121,16 +1142,19 @@
       <c r="Y7" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>0.2</v>
@@ -1198,16 +1222,19 @@
       <c r="Y8" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>0.27</v>
@@ -1275,16 +1302,19 @@
       <c r="Y9" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>0.53</v>
@@ -1352,16 +1382,19 @@
       <c r="Y10" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
         <v>0.21</v>
@@ -1429,16 +1462,19 @@
       <c r="Y11" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>0.28</v>
@@ -1506,16 +1542,19 @@
       <c r="Y12" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>0.51</v>
@@ -1583,16 +1622,19 @@
       <c r="Y13" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>0.23</v>
@@ -1660,16 +1702,19 @@
       <c r="Y14" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1737,16 +1782,19 @@
       <c r="Y15" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
         <v>0.59</v>
@@ -1814,16 +1862,19 @@
       <c r="Y16" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
@@ -1891,16 +1942,19 @@
       <c r="Y17" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>0.38</v>
@@ -1968,16 +2022,19 @@
       <c r="Y18" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
         <v>0.45</v>
@@ -2045,16 +2102,19 @@
       <c r="Y19" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>0.22</v>
@@ -2122,16 +2182,19 @@
       <c r="Y20" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0.28</v>
@@ -2199,16 +2262,19 @@
       <c r="Y21" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
         <v>0.5</v>
@@ -2276,16 +2342,19 @@
       <c r="Y22" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>0.31</v>
@@ -2353,16 +2422,19 @@
       <c r="Y23" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
         <v>0.32</v>
@@ -2430,16 +2502,19 @@
       <c r="Y24" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
         <v>0.37</v>
@@ -2507,16 +2582,19 @@
       <c r="Y25" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -2584,16 +2662,19 @@
       <c r="Y26" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
         <v>0.26</v>
@@ -2661,16 +2742,19 @@
       <c r="Y27" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -2738,16 +2822,19 @@
       <c r="Y28" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
         <v>0.22</v>
@@ -2815,16 +2902,19 @@
       <c r="Y29" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
         <v>0.27</v>
@@ -2892,16 +2982,19 @@
       <c r="Y30" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
         <v>0.51</v>
@@ -2969,16 +3062,19 @@
       <c r="Y31" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="n">
         <v>0.17</v>
@@ -3046,16 +3142,19 @@
       <c r="Y32" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
         <v>0.3</v>
@@ -3123,16 +3222,19 @@
       <c r="Y33" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
         <v>0.53</v>
@@ -3200,16 +3302,19 @@
       <c r="Y34" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
         <v>0.25</v>
@@ -3277,16 +3382,19 @@
       <c r="Y35" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="n">
         <v>0.27</v>
@@ -3354,16 +3462,19 @@
       <c r="Y36" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
         <v>0.48</v>
@@ -3431,16 +3542,19 @@
       <c r="Y37" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
         <v>0.24</v>
@@ -3508,16 +3622,19 @@
       <c r="Y38" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -3585,16 +3702,19 @@
       <c r="Y39" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
         <v>0.45</v>
@@ -3662,16 +3782,19 @@
       <c r="Y40" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
         <v>0.15</v>
@@ -3739,16 +3862,19 @@
       <c r="Y41" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
         <v>0.22</v>
@@ -3816,16 +3942,19 @@
       <c r="Y42" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -3893,16 +4022,19 @@
       <c r="Y43" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>0.22</v>
@@ -3970,16 +4102,19 @@
       <c r="Y44" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -4047,16 +4182,19 @@
       <c r="Y45" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
         <v>0.49</v>
@@ -4124,16 +4262,19 @@
       <c r="Y46" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
         <v>0.21</v>
@@ -4201,16 +4342,19 @@
       <c r="Y47" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
         <v>0.26</v>
@@ -4278,16 +4422,19 @@
       <c r="Y48" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
         <v>0.53</v>
@@ -4355,16 +4502,19 @@
       <c r="Y49" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" t="n">
         <v>0.11</v>
@@ -4432,16 +4582,19 @@
       <c r="Y50" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" t="n">
         <v>0.18</v>
@@ -4509,16 +4662,19 @@
       <c r="Y51" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
         <v>0.71</v>
@@ -4586,16 +4742,19 @@
       <c r="Y52" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" t="n">
         <v>0.17</v>
@@ -4663,16 +4822,19 @@
       <c r="Y53" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" t="n">
         <v>0.31</v>
@@ -4740,16 +4902,19 @@
       <c r="Y54" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
         <v>0.52</v>
@@ -4817,16 +4982,19 @@
       <c r="Y55" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="n">
         <v>0.25</v>
@@ -4894,16 +5062,19 @@
       <c r="Y56" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -4971,16 +5142,19 @@
       <c r="Y57" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
         <v>0.44</v>
@@ -5048,16 +5222,19 @@
       <c r="Y58" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" t="n">
         <v>0.32</v>
@@ -5125,16 +5302,19 @@
       <c r="Y59" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="n">
         <v>0.34</v>
@@ -5202,16 +5382,19 @@
       <c r="Y60" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
         <v>0.34</v>
@@ -5279,16 +5462,19 @@
       <c r="Y61" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" t="n">
         <v>0.3</v>
@@ -5356,16 +5542,19 @@
       <c r="Y62" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="Z62" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" t="n">
         <v>0.3</v>
@@ -5433,16 +5622,19 @@
       <c r="Y63" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -5510,16 +5702,19 @@
       <c r="Y64" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
         <v>0.31</v>
@@ -5587,16 +5782,19 @@
       <c r="Y65" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
         <v>0.32</v>
@@ -5664,16 +5862,19 @@
       <c r="Y66" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
         <v>0.37</v>
@@ -5741,16 +5942,19 @@
       <c r="Y67" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
         <v>0.16</v>
@@ -5818,16 +6022,19 @@
       <c r="Y68" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Z68" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
         <v>0.29</v>
@@ -5895,16 +6102,19 @@
       <c r="Y69" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="Z69" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
         <v>0.55</v>
@@ -5972,16 +6182,19 @@
       <c r="Y70" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="Z70" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" t="n">
         <v>0.09</v>
@@ -6049,16 +6262,19 @@
       <c r="Y71" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="Z71" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" t="n">
         <v>0.24</v>
@@ -6126,16 +6342,19 @@
       <c r="Y72" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="Z72" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
         <v>0.67</v>
@@ -6203,16 +6422,19 @@
       <c r="Y73" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="Z73" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" t="n">
         <v>0.13</v>
@@ -6280,16 +6502,19 @@
       <c r="Y74" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="Z74" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" t="n">
         <v>0.25</v>
@@ -6357,16 +6582,19 @@
       <c r="Y75" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="Z75" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" t="n">
         <v>0.62</v>
@@ -6434,10 +6662,13 @@
       <c r="Y76" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="Z76" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6451,7 +6682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,7 +6690,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6532,13 +6763,16 @@
       <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -6606,13 +6840,16 @@
       <c r="X2" t="n">
         <v>2120</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -6680,13 +6917,16 @@
       <c r="X3" t="n">
         <v>511</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -6754,13 +6994,16 @@
       <c r="X4" t="n">
         <v>774</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -6828,13 +7071,16 @@
       <c r="X5" t="n">
         <v>835</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>11</v>
@@ -6902,13 +7148,16 @@
       <c r="X6" t="n">
         <v>694</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
         <v>102</v>
@@ -6976,13 +7225,16 @@
       <c r="X7" t="n">
         <v>668</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
         <v>2988</v>
@@ -7050,13 +7302,16 @@
       <c r="X8" t="n">
         <v>758</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
         <v>1514</v>
@@ -7124,13 +7379,16 @@
       <c r="X9" t="n">
         <v>1025</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
         <v>1587</v>
@@ -7198,13 +7456,16 @@
       <c r="X10" t="n">
         <v>1095</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
         <v>1726</v>
@@ -7272,13 +7533,16 @@
       <c r="X11" t="n">
         <v>1102</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
         <v>667</v>
@@ -7346,13 +7610,16 @@
       <c r="X12" t="n">
         <v>490</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
         <v>333</v>
@@ -7420,13 +7687,16 @@
       <c r="X13" t="n">
         <v>248</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
         <v>375</v>
@@ -7494,13 +7764,16 @@
       <c r="X14" t="n">
         <v>280</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
         <v>93</v>
@@ -7568,13 +7841,16 @@
       <c r="X15" t="n">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
         <v>224</v>
@@ -7642,13 +7918,16 @@
       <c r="X16" t="n">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
         <v>139</v>
@@ -7716,13 +7995,16 @@
       <c r="X17" t="n">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
         <v>28</v>
@@ -7790,13 +8072,16 @@
       <c r="X18" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
         <v>436</v>
@@ -7864,13 +8149,16 @@
       <c r="X19" t="n">
         <v>298</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
         <v>861</v>
@@ -7938,13 +8226,16 @@
       <c r="X20" t="n">
         <v>569</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="n">
         <v>388</v>
@@ -8012,13 +8303,16 @@
       <c r="X21" t="n">
         <v>261</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="n">
         <v>587</v>
@@ -8086,13 +8380,16 @@
       <c r="X22" t="n">
         <v>390</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="n">
         <v>539</v>
@@ -8160,13 +8457,16 @@
       <c r="X23" t="n">
         <v>374</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="n">
         <v>358</v>
@@ -8234,13 +8534,16 @@
       <c r="X24" t="n">
         <v>250</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="n">
         <v>562</v>
@@ -8308,13 +8611,16 @@
       <c r="X25" t="n">
         <v>384</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" t="n">
         <v>667</v>
@@ -8382,10 +8688,13 @@
       <c r="X26" t="n">
         <v>461</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -8410,6 +8719,7 @@
       <c r="V27" t="s"/>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>trideni</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>2. 3. 2021</t>
+  </si>
+  <si>
+    <t>16. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -200,10 +203,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,7 +589,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,16 +668,19 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>0.21</v>
@@ -745,16 +751,19 @@
       <c r="Z2" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0.29</v>
@@ -825,16 +834,19 @@
       <c r="Z3" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
@@ -905,16 +917,19 @@
       <c r="Z4" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.24</v>
@@ -985,16 +1000,19 @@
       <c r="Z5" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0.32</v>
@@ -1065,16 +1083,19 @@
       <c r="Z6" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0.44</v>
@@ -1145,16 +1166,19 @@
       <c r="Z7" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0.2</v>
@@ -1225,16 +1249,19 @@
       <c r="Z8" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>0.27</v>
@@ -1305,16 +1332,19 @@
       <c r="Z9" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
       </c>
       <c r="D10" t="n">
         <v>0.53</v>
@@ -1385,16 +1415,19 @@
       <c r="Z10" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>0.21</v>
@@ -1465,16 +1498,19 @@
       <c r="Z11" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
         <v>0.28</v>
@@ -1545,16 +1581,19 @@
       <c r="Z12" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
       </c>
       <c r="D13" t="n">
         <v>0.51</v>
@@ -1625,16 +1664,19 @@
       <c r="Z13" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>0.23</v>
@@ -1705,16 +1747,19 @@
       <c r="Z14" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1785,16 +1830,19 @@
       <c r="Z15" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
         <v>0.59</v>
@@ -1865,16 +1913,19 @@
       <c r="Z16" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
@@ -1945,16 +1996,19 @@
       <c r="Z17" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0.38</v>
@@ -2025,16 +2079,19 @@
       <c r="Z18" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
         <v>0.45</v>
@@ -2105,16 +2162,19 @@
       <c r="Z19" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>0.22</v>
@@ -2185,16 +2245,19 @@
       <c r="Z20" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>0.28</v>
@@ -2265,16 +2328,19 @@
       <c r="Z21" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
         <v>0.5</v>
@@ -2345,16 +2411,19 @@
       <c r="Z22" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>0.31</v>
@@ -2425,16 +2494,19 @@
       <c r="Z23" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>0.32</v>
@@ -2505,16 +2577,19 @@
       <c r="Z24" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
         <v>0.37</v>
@@ -2585,16 +2660,19 @@
       <c r="Z25" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -2665,16 +2743,19 @@
       <c r="Z26" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
         <v>0.26</v>
@@ -2745,16 +2826,19 @@
       <c r="Z27" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -2825,16 +2909,19 @@
       <c r="Z28" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>0.22</v>
@@ -2905,16 +2992,19 @@
       <c r="Z29" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
         <v>0.27</v>
@@ -2985,16 +3075,19 @@
       <c r="Z30" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
         <v>0.51</v>
@@ -3065,16 +3158,19 @@
       <c r="Z31" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
         <v>0.17</v>
@@ -3145,16 +3241,19 @@
       <c r="Z32" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
         <v>0.3</v>
@@ -3225,16 +3324,19 @@
       <c r="Z33" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
         <v>0.53</v>
@@ -3305,16 +3407,19 @@
       <c r="Z34" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="n">
         <v>0.25</v>
@@ -3385,16 +3490,19 @@
       <c r="Z35" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
         <v>0.27</v>
@@ -3465,16 +3573,19 @@
       <c r="Z36" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37" t="n">
         <v>0.48</v>
@@ -3545,16 +3656,19 @@
       <c r="Z37" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
         <v>0.24</v>
@@ -3625,16 +3739,19 @@
       <c r="Z38" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -3705,16 +3822,19 @@
       <c r="Z39" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
         <v>0.45</v>
@@ -3785,16 +3905,19 @@
       <c r="Z40" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
         <v>0.15</v>
@@ -3865,16 +3988,19 @@
       <c r="Z41" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>0.22</v>
@@ -3945,16 +4071,19 @@
       <c r="Z42" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -4025,16 +4154,19 @@
       <c r="Z43" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
         <v>0.22</v>
@@ -4105,16 +4237,19 @@
       <c r="Z44" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -4185,16 +4320,19 @@
       <c r="Z45" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
         <v>0.49</v>
@@ -4265,16 +4403,19 @@
       <c r="Z46" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
         <v>0.21</v>
@@ -4345,16 +4486,19 @@
       <c r="Z47" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
         <v>0.26</v>
@@ -4425,16 +4569,19 @@
       <c r="Z48" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
         <v>0.53</v>
@@ -4505,16 +4652,19 @@
       <c r="Z49" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
         <v>0.11</v>
@@ -4585,16 +4735,19 @@
       <c r="Z50" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
         <v>0.18</v>
@@ -4665,16 +4818,19 @@
       <c r="Z51" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
         <v>0.71</v>
@@ -4745,16 +4901,19 @@
       <c r="Z52" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" t="n">
         <v>0.17</v>
@@ -4825,16 +4984,19 @@
       <c r="Z53" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
         <v>0.31</v>
@@ -4905,16 +5067,19 @@
       <c r="Z54" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
         <v>0.52</v>
@@ -4985,16 +5150,19 @@
       <c r="Z55" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" t="n">
         <v>0.25</v>
@@ -5065,16 +5233,19 @@
       <c r="Z56" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -5145,16 +5316,19 @@
       <c r="Z57" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
         <v>0.44</v>
@@ -5225,16 +5399,19 @@
       <c r="Z58" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
         <v>0.32</v>
@@ -5305,16 +5482,19 @@
       <c r="Z59" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AA59" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
         <v>0.34</v>
@@ -5385,16 +5565,19 @@
       <c r="Z60" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AA60" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D61" t="n">
         <v>0.34</v>
@@ -5465,16 +5648,19 @@
       <c r="Z61" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" t="n">
         <v>0.3</v>
@@ -5545,16 +5731,19 @@
       <c r="Z62" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="AA62" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
         <v>0.3</v>
@@ -5625,16 +5814,19 @@
       <c r="Z63" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="AA63" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -5705,16 +5897,19 @@
       <c r="Z64" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AA64" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" t="n">
         <v>0.31</v>
@@ -5785,16 +5980,19 @@
       <c r="Z65" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AA65" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
         <v>0.32</v>
@@ -5865,16 +6063,19 @@
       <c r="Z66" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AA66" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D67" t="n">
         <v>0.37</v>
@@ -5945,16 +6146,19 @@
       <c r="Z67" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AA67" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" t="n">
         <v>0.16</v>
@@ -6025,16 +6229,19 @@
       <c r="Z68" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="AA68" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
         <v>0.29</v>
@@ -6105,16 +6312,19 @@
       <c r="Z69" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="AA69" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D70" t="n">
         <v>0.55</v>
@@ -6185,16 +6395,19 @@
       <c r="Z70" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="71" spans="1:26">
+      <c r="AA70" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" t="n">
         <v>0.09</v>
@@ -6265,16 +6478,19 @@
       <c r="Z71" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="72" spans="1:26">
+      <c r="AA71" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
         <v>0.24</v>
@@ -6345,16 +6561,19 @@
       <c r="Z72" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:26">
+      <c r="AA72" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" t="n">
         <v>0.67</v>
@@ -6425,16 +6644,19 @@
       <c r="Z73" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="74" spans="1:26">
+      <c r="AA73" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" t="n">
         <v>0.13</v>
@@ -6505,16 +6727,19 @@
       <c r="Z74" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="AA74" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
         <v>0.25</v>
@@ -6585,16 +6810,19 @@
       <c r="Z75" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:26">
+      <c r="AA75" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D76" t="n">
         <v>0.62</v>
@@ -6665,10 +6893,13 @@
       <c r="Z76" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="77" spans="1:26">
+      <c r="AA76" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6682,7 +6913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6690,7 +6921,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6766,13 +6997,16 @@
       <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -6843,13 +7077,16 @@
       <c r="Y2" t="n">
         <v>2130</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -6920,13 +7157,16 @@
       <c r="Y3" t="n">
         <v>512</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -6997,13 +7237,16 @@
       <c r="Y4" t="n">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -7074,13 +7317,16 @@
       <c r="Y5" t="n">
         <v>842</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>11</v>
@@ -7151,13 +7397,16 @@
       <c r="Y6" t="n">
         <v>691</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
         <v>102</v>
@@ -7228,13 +7477,16 @@
       <c r="Y7" t="n">
         <v>727</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>2988</v>
@@ -7305,13 +7557,16 @@
       <c r="Y8" t="n">
         <v>712</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>1514</v>
@@ -7382,13 +7637,16 @@
       <c r="Y9" t="n">
         <v>1042</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>1587</v>
@@ -7459,13 +7717,16 @@
       <c r="Y10" t="n">
         <v>1088</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
         <v>1726</v>
@@ -7536,13 +7797,16 @@
       <c r="Y11" t="n">
         <v>1107</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
         <v>667</v>
@@ -7613,13 +7877,16 @@
       <c r="Y12" t="n">
         <v>490</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
         <v>333</v>
@@ -7690,13 +7957,16 @@
       <c r="Y13" t="n">
         <v>252</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
         <v>375</v>
@@ -7767,13 +8037,16 @@
       <c r="Y14" t="n">
         <v>281</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
         <v>93</v>
@@ -7844,13 +8117,16 @@
       <c r="Y15" t="n">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>224</v>
@@ -7921,13 +8197,16 @@
       <c r="Y16" t="n">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="n">
         <v>139</v>
@@ -7998,13 +8277,16 @@
       <c r="Y17" t="n">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="n">
         <v>28</v>
@@ -8075,13 +8357,16 @@
       <c r="Y18" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="n">
         <v>436</v>
@@ -8152,13 +8437,16 @@
       <c r="Y19" t="n">
         <v>288</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
         <v>861</v>
@@ -8229,13 +8517,16 @@
       <c r="Y20" t="n">
         <v>574</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="n">
         <v>388</v>
@@ -8306,13 +8597,16 @@
       <c r="Y21" t="n">
         <v>266</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="n">
         <v>587</v>
@@ -8383,13 +8677,16 @@
       <c r="Y22" t="n">
         <v>401</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="n">
         <v>539</v>
@@ -8460,13 +8757,16 @@
       <c r="Y23" t="n">
         <v>375</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="n">
         <v>358</v>
@@ -8537,13 +8837,16 @@
       <c r="Y24" t="n">
         <v>246</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="n">
         <v>562</v>
@@ -8614,13 +8917,16 @@
       <c r="Y25" t="n">
         <v>375</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" t="n">
         <v>667</v>
@@ -8691,10 +8997,13 @@
       <c r="Y26" t="n">
         <v>467</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -8720,6 +9029,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s"/>
+      <c r="Z27" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>trideni</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>16. 3. 2021</t>
+  </si>
+  <si>
+    <t>30. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -203,10 +206,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AB77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +592,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,16 +674,19 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>0.21</v>
@@ -754,16 +760,19 @@
       <c r="AA2" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
         <v>0.29</v>
@@ -837,16 +846,19 @@
       <c r="AA3" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
@@ -920,16 +932,19 @@
       <c r="AA4" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
         <v>0.24</v>
@@ -1003,16 +1018,19 @@
       <c r="AA5" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>0.32</v>
@@ -1086,16 +1104,19 @@
       <c r="AA6" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0.44</v>
@@ -1169,16 +1190,19 @@
       <c r="AA7" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>0.2</v>
@@ -1252,16 +1276,19 @@
       <c r="AA8" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>0.27</v>
@@ -1335,16 +1362,19 @@
       <c r="AA9" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>0.53</v>
@@ -1418,16 +1448,19 @@
       <c r="AA10" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
         <v>0.21</v>
@@ -1501,16 +1534,19 @@
       <c r="AA11" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
         <v>0.28</v>
@@ -1584,16 +1620,19 @@
       <c r="AA12" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
       <c r="D13" t="n">
         <v>0.51</v>
@@ -1667,16 +1706,19 @@
       <c r="AA13" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
         <v>0.23</v>
@@ -1750,16 +1792,19 @@
       <c r="AA14" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1833,16 +1878,19 @@
       <c r="AA15" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
         <v>0.59</v>
@@ -1916,16 +1964,19 @@
       <c r="AA16" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
@@ -1999,16 +2050,19 @@
       <c r="AA17" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
         <v>0.38</v>
@@ -2082,16 +2136,19 @@
       <c r="AA18" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
         <v>0.45</v>
@@ -2165,16 +2222,19 @@
       <c r="AA19" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
         <v>0.22</v>
@@ -2248,16 +2308,19 @@
       <c r="AA20" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
         <v>0.28</v>
@@ -2331,16 +2394,19 @@
       <c r="AA21" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>0.5</v>
@@ -2414,16 +2480,19 @@
       <c r="AA22" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>0.31</v>
@@ -2497,16 +2566,19 @@
       <c r="AA23" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
         <v>0.32</v>
@@ -2580,16 +2652,19 @@
       <c r="AA24" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>0.37</v>
@@ -2663,16 +2738,19 @@
       <c r="AA25" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -2746,16 +2824,19 @@
       <c r="AA26" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
         <v>0.26</v>
@@ -2829,16 +2910,19 @@
       <c r="AA27" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -2912,16 +2996,19 @@
       <c r="AA28" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
         <v>0.22</v>
@@ -2995,16 +3082,19 @@
       <c r="AA29" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
         <v>0.27</v>
@@ -3078,16 +3168,19 @@
       <c r="AA30" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>0.51</v>
@@ -3161,16 +3254,19 @@
       <c r="AA31" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
         <v>0.17</v>
@@ -3244,16 +3340,19 @@
       <c r="AA32" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
         <v>0.3</v>
@@ -3327,16 +3426,19 @@
       <c r="AA33" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
         <v>0.53</v>
@@ -3410,16 +3512,19 @@
       <c r="AA34" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
         <v>0.25</v>
@@ -3493,16 +3598,19 @@
       <c r="AA35" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
         <v>0.27</v>
@@ -3576,16 +3684,19 @@
       <c r="AA36" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
         <v>0.48</v>
@@ -3659,16 +3770,19 @@
       <c r="AA37" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
         <v>0.24</v>
@@ -3742,16 +3856,19 @@
       <c r="AA38" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -3825,16 +3942,19 @@
       <c r="AA39" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" t="n">
         <v>0.45</v>
@@ -3908,16 +4028,19 @@
       <c r="AA40" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
         <v>0.15</v>
@@ -3991,16 +4114,19 @@
       <c r="AA41" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
         <v>0.22</v>
@@ -4074,16 +4200,19 @@
       <c r="AA42" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -4157,16 +4286,19 @@
       <c r="AA43" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
         <v>0.22</v>
@@ -4240,16 +4372,19 @@
       <c r="AA44" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -4323,16 +4458,19 @@
       <c r="AA45" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" t="n">
         <v>0.49</v>
@@ -4406,16 +4544,19 @@
       <c r="AA46" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
         <v>0.21</v>
@@ -4489,16 +4630,19 @@
       <c r="AA47" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
         <v>0.26</v>
@@ -4572,16 +4716,19 @@
       <c r="AA48" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" t="n">
         <v>0.53</v>
@@ -4655,16 +4802,19 @@
       <c r="AA49" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
         <v>0.11</v>
@@ -4738,16 +4888,19 @@
       <c r="AA50" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" t="n">
         <v>0.18</v>
@@ -4821,16 +4974,19 @@
       <c r="AA51" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AB51" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
         <v>0.71</v>
@@ -4904,16 +5060,19 @@
       <c r="AA52" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AB52" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
         <v>0.17</v>
@@ -4987,16 +5146,19 @@
       <c r="AA53" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AB53" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" t="n">
         <v>0.31</v>
@@ -5070,16 +5232,19 @@
       <c r="AA54" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AB54" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" t="n">
         <v>0.52</v>
@@ -5153,16 +5318,19 @@
       <c r="AA55" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AB55" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
         <v>0.25</v>
@@ -5236,16 +5404,19 @@
       <c r="AA56" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AB56" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -5319,16 +5490,19 @@
       <c r="AA57" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AB57" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" t="n">
         <v>0.44</v>
@@ -5402,16 +5576,19 @@
       <c r="AA58" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AB58" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
         <v>0.32</v>
@@ -5485,16 +5662,19 @@
       <c r="AA59" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AB59" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" t="n">
         <v>0.34</v>
@@ -5568,16 +5748,19 @@
       <c r="AA60" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AB60" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" t="n">
         <v>0.34</v>
@@ -5651,16 +5834,19 @@
       <c r="AA61" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AB61" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
         <v>0.3</v>
@@ -5734,16 +5920,19 @@
       <c r="AA62" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AB62" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
         <v>0.3</v>
@@ -5817,16 +6006,19 @@
       <c r="AA63" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AB63" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -5900,16 +6092,19 @@
       <c r="AA64" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AB64" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
         <v>0.31</v>
@@ -5983,16 +6178,19 @@
       <c r="AA65" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AB65" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D66" t="n">
         <v>0.32</v>
@@ -6066,16 +6264,19 @@
       <c r="AA66" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AB66" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" t="n">
         <v>0.37</v>
@@ -6149,16 +6350,19 @@
       <c r="AA67" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AB67" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
         <v>0.16</v>
@@ -6232,16 +6436,19 @@
       <c r="AA68" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AB68" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="n">
         <v>0.29</v>
@@ -6315,16 +6522,19 @@
       <c r="AA69" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AB69" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
         <v>0.55</v>
@@ -6398,16 +6608,19 @@
       <c r="AA70" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AB70" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
         <v>0.09</v>
@@ -6481,16 +6694,19 @@
       <c r="AA71" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AB71" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D72" t="n">
         <v>0.24</v>
@@ -6564,16 +6780,19 @@
       <c r="AA72" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AB72" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D73" t="n">
         <v>0.67</v>
@@ -6647,16 +6866,19 @@
       <c r="AA73" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AB73" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
         <v>0.13</v>
@@ -6730,16 +6952,19 @@
       <c r="AA74" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AB74" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D75" t="n">
         <v>0.25</v>
@@ -6813,16 +7038,19 @@
       <c r="AA75" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AB75" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" t="n">
         <v>0.62</v>
@@ -6896,10 +7124,13 @@
       <c r="AA76" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AB76" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -6913,7 +7144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6921,7 +7152,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7000,13 +7231,16 @@
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -7080,13 +7314,16 @@
       <c r="Z2" t="n">
         <v>2101</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -7160,13 +7397,16 @@
       <c r="Z3" t="n">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -7240,13 +7480,16 @@
       <c r="Z4" t="n">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -7320,13 +7563,16 @@
       <c r="Z5" t="n">
         <v>825</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>11</v>
@@ -7400,13 +7646,16 @@
       <c r="Z6" t="n">
         <v>676</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>102</v>
@@ -7480,13 +7729,16 @@
       <c r="Z7" t="n">
         <v>744</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>2988</v>
@@ -7560,13 +7812,16 @@
       <c r="Z8" t="n">
         <v>681</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
         <v>1514</v>
@@ -7640,13 +7895,16 @@
       <c r="Z9" t="n">
         <v>1015</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
         <v>1587</v>
@@ -7720,13 +7978,16 @@
       <c r="Z10" t="n">
         <v>1086</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="n">
         <v>1726</v>
@@ -7800,13 +8061,16 @@
       <c r="Z11" t="n">
         <v>1104</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
         <v>667</v>
@@ -7880,13 +8144,16 @@
       <c r="Z12" t="n">
         <v>478</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
         <v>333</v>
@@ -7960,13 +8227,16 @@
       <c r="Z13" t="n">
         <v>242</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
         <v>375</v>
@@ -8040,13 +8310,16 @@
       <c r="Z14" t="n">
         <v>277</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
         <v>93</v>
@@ -8120,13 +8393,16 @@
       <c r="Z15" t="n">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
         <v>224</v>
@@ -8200,13 +8476,16 @@
       <c r="Z16" t="n">
         <v>154</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
         <v>139</v>
@@ -8280,13 +8559,16 @@
       <c r="Z17" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="n">
         <v>28</v>
@@ -8360,13 +8642,16 @@
       <c r="Z18" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
         <v>436</v>
@@ -8440,13 +8725,16 @@
       <c r="Z19" t="n">
         <v>303</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
         <v>861</v>
@@ -8520,13 +8808,16 @@
       <c r="Z20" t="n">
         <v>563</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="n">
         <v>388</v>
@@ -8600,13 +8891,16 @@
       <c r="Z21" t="n">
         <v>256</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="n">
         <v>587</v>
@@ -8680,13 +8974,16 @@
       <c r="Z22" t="n">
         <v>391</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="n">
         <v>539</v>
@@ -8760,13 +9057,16 @@
       <c r="Z23" t="n">
         <v>368</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="n">
         <v>358</v>
@@ -8840,13 +9140,16 @@
       <c r="Z24" t="n">
         <v>244</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" t="n">
         <v>562</v>
@@ -8920,13 +9223,16 @@
       <c r="Z25" t="n">
         <v>385</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="n">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="n">
         <v>667</v>
@@ -9000,10 +9306,13 @@
       <c r="Z26" t="n">
         <v>457</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -9030,6 +9339,7 @@
       <c r="X27" t="s"/>
       <c r="Y27" t="s"/>
       <c r="Z27" t="s"/>
+      <c r="AA27" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>trideni</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>30. 3. 2021</t>
+  </si>
+  <si>
+    <t>13. 4. 2021</t>
+  </si>
+  <si>
+    <t>4. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -206,10 +212,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
 </sst>
 </file>
@@ -584,7 +590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB77"/>
+  <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +598,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,16 +683,22 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>0.21</v>
@@ -763,16 +775,22 @@
       <c r="AB2" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>0.29</v>
@@ -849,16 +867,22 @@
       <c r="AB3" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
@@ -935,16 +959,22 @@
       <c r="AB4" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>0.24</v>
@@ -1021,16 +1051,22 @@
       <c r="AB5" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>0.32</v>
@@ -1107,16 +1143,22 @@
       <c r="AB6" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0.44</v>
@@ -1193,16 +1235,22 @@
       <c r="AB7" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
         <v>0.2</v>
@@ -1279,16 +1327,22 @@
       <c r="AB8" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>0.27</v>
@@ -1365,16 +1419,22 @@
       <c r="AB9" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0.53</v>
@@ -1451,16 +1511,22 @@
       <c r="AB10" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>0.21</v>
@@ -1537,16 +1603,22 @@
       <c r="AB11" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
       </c>
       <c r="D12" t="n">
         <v>0.28</v>
@@ -1623,16 +1695,22 @@
       <c r="AB12" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0.51</v>
@@ -1709,16 +1787,22 @@
       <c r="AB13" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>0.23</v>
@@ -1795,16 +1879,22 @@
       <c r="AB14" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1881,16 +1971,22 @@
       <c r="AB15" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
         <v>0.59</v>
@@ -1967,16 +2063,22 @@
       <c r="AB16" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
@@ -2053,16 +2155,22 @@
       <c r="AB17" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
         <v>0.38</v>
@@ -2139,16 +2247,22 @@
       <c r="AB18" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>0.45</v>
@@ -2225,16 +2339,22 @@
       <c r="AB19" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0.22</v>
@@ -2311,16 +2431,22 @@
       <c r="AB20" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>0.28</v>
@@ -2397,16 +2523,22 @@
       <c r="AB21" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>0.5</v>
@@ -2483,16 +2615,22 @@
       <c r="AB22" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
         <v>0.31</v>
@@ -2569,16 +2707,22 @@
       <c r="AB23" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
         <v>0.32</v>
@@ -2655,16 +2799,22 @@
       <c r="AB24" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
         <v>0.37</v>
@@ -2741,16 +2891,22 @@
       <c r="AB25" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -2827,16 +2983,22 @@
       <c r="AB26" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
         <v>0.26</v>
@@ -2913,16 +3075,22 @@
       <c r="AB27" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -2999,16 +3167,22 @@
       <c r="AB28" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
         <v>0.22</v>
@@ -3085,16 +3259,22 @@
       <c r="AB29" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>0.27</v>
@@ -3171,16 +3351,22 @@
       <c r="AB30" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
         <v>0.51</v>
@@ -3257,16 +3443,22 @@
       <c r="AB31" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" t="n">
         <v>0.17</v>
@@ -3343,16 +3535,22 @@
       <c r="AB32" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
         <v>0.3</v>
@@ -3429,16 +3627,22 @@
       <c r="AB33" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>0.53</v>
@@ -3515,16 +3719,22 @@
       <c r="AB34" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
         <v>0.25</v>
@@ -3601,16 +3811,22 @@
       <c r="AB35" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
         <v>0.27</v>
@@ -3687,16 +3903,22 @@
       <c r="AB36" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
         <v>0.48</v>
@@ -3773,16 +3995,22 @@
       <c r="AB37" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" t="n">
         <v>0.24</v>
@@ -3859,16 +4087,22 @@
       <c r="AB38" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -3945,16 +4179,22 @@
       <c r="AB39" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
         <v>0.45</v>
@@ -4031,16 +4271,22 @@
       <c r="AB40" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
         <v>0.15</v>
@@ -4117,16 +4363,22 @@
       <c r="AB41" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
         <v>0.22</v>
@@ -4203,16 +4455,22 @@
       <c r="AB42" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -4289,16 +4547,22 @@
       <c r="AB43" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
         <v>0.22</v>
@@ -4375,16 +4639,22 @@
       <c r="AB44" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -4461,16 +4731,22 @@
       <c r="AB45" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
         <v>0.49</v>
@@ -4547,16 +4823,22 @@
       <c r="AB46" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
         <v>0.21</v>
@@ -4633,16 +4915,22 @@
       <c r="AB47" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
         <v>0.26</v>
@@ -4719,16 +5007,22 @@
       <c r="AB48" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
         <v>0.53</v>
@@ -4805,16 +5099,22 @@
       <c r="AB49" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
         <v>0.11</v>
@@ -4891,16 +5191,22 @@
       <c r="AB50" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D51" t="n">
         <v>0.18</v>
@@ -4977,16 +5283,22 @@
       <c r="AB51" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
         <v>0.71</v>
@@ -5063,16 +5375,22 @@
       <c r="AB52" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AC52" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
         <v>0.17</v>
@@ -5149,16 +5467,22 @@
       <c r="AB53" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D54" t="n">
         <v>0.31</v>
@@ -5235,16 +5559,22 @@
       <c r="AB54" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
         <v>0.52</v>
@@ -5321,16 +5651,22 @@
       <c r="AB55" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
         <v>0.25</v>
@@ -5407,16 +5743,22 @@
       <c r="AB56" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -5493,16 +5835,22 @@
       <c r="AB57" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
         <v>0.44</v>
@@ -5579,16 +5927,22 @@
       <c r="AB58" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
         <v>0.32</v>
@@ -5665,16 +6019,22 @@
       <c r="AB59" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AC59" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D60" t="n">
         <v>0.34</v>
@@ -5751,16 +6111,22 @@
       <c r="AB60" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="AC60" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
         <v>0.34</v>
@@ -5837,16 +6203,22 @@
       <c r="AB61" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="AC61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D62" t="n">
         <v>0.3</v>
@@ -5923,16 +6295,22 @@
       <c r="AB62" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AC62" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D63" t="n">
         <v>0.3</v>
@@ -6009,16 +6387,22 @@
       <c r="AB63" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="AC63" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -6095,16 +6479,22 @@
       <c r="AB64" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="65" spans="1:28">
+      <c r="AC64" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D65" t="n">
         <v>0.31</v>
@@ -6181,16 +6571,22 @@
       <c r="AB65" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="AC65" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D66" t="n">
         <v>0.32</v>
@@ -6267,16 +6663,22 @@
       <c r="AB66" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AC66" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D67" t="n">
         <v>0.37</v>
@@ -6353,16 +6755,22 @@
       <c r="AB67" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="AC67" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D68" t="n">
         <v>0.16</v>
@@ -6439,16 +6847,22 @@
       <c r="AB68" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="69" spans="1:28">
+      <c r="AC68" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D69" t="n">
         <v>0.29</v>
@@ -6525,16 +6939,22 @@
       <c r="AB69" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="70" spans="1:28">
+      <c r="AC69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D70" t="n">
         <v>0.55</v>
@@ -6611,16 +7031,22 @@
       <c r="AB70" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="AC70" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
         <v>0.09</v>
@@ -6697,16 +7123,22 @@
       <c r="AB71" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="AC71" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D72" t="n">
         <v>0.24</v>
@@ -6783,16 +7215,22 @@
       <c r="AB72" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="AC72" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D73" t="n">
         <v>0.67</v>
@@ -6869,16 +7307,22 @@
       <c r="AB73" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="74" spans="1:28">
+      <c r="AC73" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D74" t="n">
         <v>0.13</v>
@@ -6955,16 +7399,22 @@
       <c r="AB74" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="75" spans="1:28">
+      <c r="AC74" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D75" t="n">
         <v>0.25</v>
@@ -7041,16 +7491,22 @@
       <c r="AB75" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="76" spans="1:28">
+      <c r="AC75" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D76" t="n">
         <v>0.62</v>
@@ -7127,10 +7583,16 @@
       <c r="AB76" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="77" spans="1:28">
+      <c r="AC76" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -7144,7 +7606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7152,7 +7614,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7234,13 +7696,19 @@
       <c r="AA1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -7317,13 +7785,19 @@
       <c r="AA2" t="n">
         <v>2061</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>2059</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -7400,13 +7874,19 @@
       <c r="AA3" t="n">
         <v>488</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>491</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -7483,13 +7963,19 @@
       <c r="AA4" t="n">
         <v>758</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>754</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -7566,13 +8052,19 @@
       <c r="AA5" t="n">
         <v>815</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>814</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>11</v>
@@ -7649,13 +8141,19 @@
       <c r="AA6" t="n">
         <v>626</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>554</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>102</v>
@@ -7732,13 +8230,19 @@
       <c r="AA7" t="n">
         <v>734</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>690</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
         <v>2988</v>
@@ -7815,13 +8319,19 @@
       <c r="AA8" t="n">
         <v>701</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>815</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
         <v>1514</v>
@@ -7898,13 +8408,19 @@
       <c r="AA9" t="n">
         <v>1007</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>997</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
         <v>1587</v>
@@ -7981,13 +8497,19 @@
       <c r="AA10" t="n">
         <v>1054</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>1062</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>1726</v>
@@ -8064,13 +8586,19 @@
       <c r="AA11" t="n">
         <v>1084</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>1084</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="n">
         <v>667</v>
@@ -8147,13 +8675,19 @@
       <c r="AA12" t="n">
         <v>464</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>462</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
         <v>333</v>
@@ -8230,13 +8764,19 @@
       <c r="AA13" t="n">
         <v>241</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>241</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
         <v>375</v>
@@ -8313,13 +8853,19 @@
       <c r="AA14" t="n">
         <v>272</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>272</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" t="n">
         <v>93</v>
@@ -8396,13 +8942,19 @@
       <c r="AA15" t="n">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>53</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" t="n">
         <v>224</v>
@@ -8479,13 +9031,19 @@
       <c r="AA16" t="n">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>155</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" t="n">
         <v>139</v>
@@ -8562,13 +9120,19 @@
       <c r="AA17" t="n">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>102</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="n">
         <v>28</v>
@@ -8645,13 +9209,19 @@
       <c r="AA18" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" t="n">
         <v>436</v>
@@ -8728,13 +9298,19 @@
       <c r="AA19" t="n">
         <v>291</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>284</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" t="n">
         <v>861</v>
@@ -8811,13 +9387,19 @@
       <c r="AA20" t="n">
         <v>558</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>551</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" t="n">
         <v>388</v>
@@ -8894,13 +9476,19 @@
       <c r="AA21" t="n">
         <v>251</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" t="n">
         <v>587</v>
@@ -8977,13 +9565,19 @@
       <c r="AA22" t="n">
         <v>391</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>382</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" t="n">
         <v>539</v>
@@ -9060,13 +9654,19 @@
       <c r="AA23" t="n">
         <v>365</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>364</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" t="n">
         <v>358</v>
@@ -9143,13 +9743,19 @@
       <c r="AA24" t="n">
         <v>238</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>240</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" t="n">
         <v>562</v>
@@ -9226,13 +9832,19 @@
       <c r="AA25" t="n">
         <v>367</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>372</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" t="n">
         <v>667</v>
@@ -9309,10 +9921,16 @@
       <c r="AA26" t="n">
         <v>449</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>450</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -9340,6 +9958,8 @@
       <c r="Y27" t="s"/>
       <c r="Z27" t="s"/>
       <c r="AA27" t="s"/>
+      <c r="AB27" t="s"/>
+      <c r="AC27" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>trideni</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>4. 5. 2021</t>
+  </si>
+  <si>
+    <t>25. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -212,10 +215,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD77"/>
+  <dimension ref="A1:AE77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +601,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,16 +692,19 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
         <v>0.21</v>
@@ -781,16 +787,19 @@
       <c r="AD2" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>0.29</v>
@@ -873,16 +882,19 @@
       <c r="AD3" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
@@ -965,16 +977,19 @@
       <c r="AD4" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>0.24</v>
@@ -1057,16 +1072,19 @@
       <c r="AD5" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>0.32</v>
@@ -1149,16 +1167,19 @@
       <c r="AD6" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>0.44</v>
@@ -1241,16 +1262,19 @@
       <c r="AD7" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0.2</v>
@@ -1333,16 +1357,19 @@
       <c r="AD8" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AE8" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>0.27</v>
@@ -1423,18 +1450,21 @@
         <v>0.38</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.44</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0.53</v>
@@ -1515,18 +1545,21 @@
         <v>0.41</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.32</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
         <v>0.21</v>
@@ -1609,16 +1642,19 @@
       <c r="AD11" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>0.28</v>
@@ -1701,16 +1737,19 @@
       <c r="AD12" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0.51</v>
@@ -1793,16 +1832,19 @@
       <c r="AD13" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>0.23</v>
@@ -1885,16 +1927,19 @@
       <c r="AD14" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -1977,16 +2022,19 @@
       <c r="AD15" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
         <v>0.59</v>
@@ -2069,16 +2117,19 @@
       <c r="AD16" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
@@ -2161,16 +2212,19 @@
       <c r="AD17" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
         <v>0.38</v>
@@ -2253,16 +2307,19 @@
       <c r="AD18" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
         <v>0.45</v>
@@ -2345,16 +2402,19 @@
       <c r="AD19" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0.22</v>
@@ -2437,16 +2497,19 @@
       <c r="AD20" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
         <v>0.28</v>
@@ -2529,16 +2592,19 @@
       <c r="AD21" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="n">
         <v>0.5</v>
@@ -2621,16 +2687,19 @@
       <c r="AD22" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AE22" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
         <v>0.31</v>
@@ -2713,16 +2782,19 @@
       <c r="AD23" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AE23" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
         <v>0.32</v>
@@ -2805,16 +2877,19 @@
       <c r="AD24" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AE24" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
         <v>0.37</v>
@@ -2897,16 +2972,19 @@
       <c r="AD25" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AE25" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -2989,16 +3067,19 @@
       <c r="AD26" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AE26" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
         <v>0.26</v>
@@ -3081,16 +3162,19 @@
       <c r="AD27" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AE27" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -3173,16 +3257,19 @@
       <c r="AD28" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AE28" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
         <v>0.22</v>
@@ -3265,16 +3352,19 @@
       <c r="AD29" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AE29" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>0.27</v>
@@ -3355,18 +3445,21 @@
         <v>0.35</v>
       </c>
       <c r="AD30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE30" t="n">
         <v>0.41</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
         <v>0.51</v>
@@ -3447,18 +3540,21 @@
         <v>0.45</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
+        <v>0.38</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
         <v>0.17</v>
@@ -3541,16 +3637,19 @@
       <c r="AD32" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="33" spans="1:30">
+      <c r="AE32" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
         <v>0.3</v>
@@ -3633,16 +3732,19 @@
       <c r="AD33" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="34" spans="1:30">
+      <c r="AE33" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
         <v>0.53</v>
@@ -3725,16 +3827,19 @@
       <c r="AD34" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="35" spans="1:30">
+      <c r="AE34" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" t="n">
         <v>0.25</v>
@@ -3817,16 +3922,19 @@
       <c r="AD35" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="36" spans="1:30">
+      <c r="AE35" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
         <v>0.27</v>
@@ -3909,16 +4017,19 @@
       <c r="AD36" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="37" spans="1:30">
+      <c r="AE36" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
         <v>0.48</v>
@@ -4001,16 +4112,19 @@
       <c r="AD37" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="38" spans="1:30">
+      <c r="AE37" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
         <v>0.24</v>
@@ -4093,16 +4207,19 @@
       <c r="AD38" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="39" spans="1:30">
+      <c r="AE38" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -4185,16 +4302,19 @@
       <c r="AD39" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="40" spans="1:30">
+      <c r="AE39" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
         <v>0.45</v>
@@ -4277,16 +4397,19 @@
       <c r="AD40" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="41" spans="1:30">
+      <c r="AE40" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
         <v>0.15</v>
@@ -4369,16 +4492,19 @@
       <c r="AD41" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:30">
+      <c r="AE41" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
         <v>0.22</v>
@@ -4461,16 +4587,19 @@
       <c r="AD42" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="43" spans="1:30">
+      <c r="AE42" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -4553,16 +4682,19 @@
       <c r="AD43" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="44" spans="1:30">
+      <c r="AE43" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
         <v>0.22</v>
@@ -4645,16 +4777,19 @@
       <c r="AD44" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="45" spans="1:30">
+      <c r="AE44" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -4737,16 +4872,19 @@
       <c r="AD45" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="46" spans="1:30">
+      <c r="AE45" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
         <v>0.49</v>
@@ -4829,16 +4967,19 @@
       <c r="AD46" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="47" spans="1:30">
+      <c r="AE46" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
         <v>0.21</v>
@@ -4921,16 +5062,19 @@
       <c r="AD47" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="48" spans="1:30">
+      <c r="AE47" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
         <v>0.26</v>
@@ -5013,16 +5157,19 @@
       <c r="AD48" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:30">
+      <c r="AE48" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
         <v>0.53</v>
@@ -5105,16 +5252,19 @@
       <c r="AD49" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AE49" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
         <v>0.11</v>
@@ -5197,16 +5347,19 @@
       <c r="AD50" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:30">
+      <c r="AE50" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" t="n">
         <v>0.18</v>
@@ -5289,16 +5442,19 @@
       <c r="AD51" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="52" spans="1:30">
+      <c r="AE51" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
         <v>0.71</v>
@@ -5381,16 +5537,19 @@
       <c r="AD52" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="53" spans="1:30">
+      <c r="AE52" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" t="n">
         <v>0.17</v>
@@ -5473,16 +5632,19 @@
       <c r="AD53" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="54" spans="1:30">
+      <c r="AE53" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
         <v>0.31</v>
@@ -5565,16 +5727,19 @@
       <c r="AD54" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AE54" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>0.52</v>
@@ -5657,16 +5822,19 @@
       <c r="AD55" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="56" spans="1:30">
+      <c r="AE55" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
         <v>0.25</v>
@@ -5749,16 +5917,19 @@
       <c r="AD56" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="57" spans="1:30">
+      <c r="AE56" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -5841,16 +6012,19 @@
       <c r="AD57" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="58" spans="1:30">
+      <c r="AE57" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
         <v>0.44</v>
@@ -5933,16 +6107,19 @@
       <c r="AD58" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="59" spans="1:30">
+      <c r="AE58" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D59" t="n">
         <v>0.32</v>
@@ -6025,16 +6202,19 @@
       <c r="AD59" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="60" spans="1:30">
+      <c r="AE59" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" t="n">
         <v>0.34</v>
@@ -6117,16 +6297,19 @@
       <c r="AD60" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="61" spans="1:30">
+      <c r="AE60" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
         <v>0.34</v>
@@ -6209,16 +6392,19 @@
       <c r="AD61" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="62" spans="1:30">
+      <c r="AE61" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D62" t="n">
         <v>0.3</v>
@@ -6301,16 +6487,19 @@
       <c r="AD62" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="63" spans="1:30">
+      <c r="AE62" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" t="n">
         <v>0.3</v>
@@ -6393,16 +6582,19 @@
       <c r="AD63" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="64" spans="1:30">
+      <c r="AE63" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -6485,16 +6677,19 @@
       <c r="AD64" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:30">
+      <c r="AE64" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" t="n">
         <v>0.31</v>
@@ -6577,16 +6772,19 @@
       <c r="AD65" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="66" spans="1:30">
+      <c r="AE65" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" t="n">
         <v>0.32</v>
@@ -6669,16 +6867,19 @@
       <c r="AD66" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="67" spans="1:30">
+      <c r="AE66" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
         <v>0.37</v>
@@ -6761,16 +6962,19 @@
       <c r="AD67" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="68" spans="1:30">
+      <c r="AE67" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D68" t="n">
         <v>0.16</v>
@@ -6853,16 +7057,19 @@
       <c r="AD68" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="69" spans="1:30">
+      <c r="AE68" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69" t="n">
         <v>0.29</v>
@@ -6945,16 +7152,19 @@
       <c r="AD69" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="70" spans="1:30">
+      <c r="AE69" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D70" t="n">
         <v>0.55</v>
@@ -7037,16 +7247,19 @@
       <c r="AD70" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="71" spans="1:30">
+      <c r="AE70" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D71" t="n">
         <v>0.09</v>
@@ -7129,16 +7342,19 @@
       <c r="AD71" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="72" spans="1:30">
+      <c r="AE71" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" t="n">
         <v>0.24</v>
@@ -7221,16 +7437,19 @@
       <c r="AD72" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="73" spans="1:30">
+      <c r="AE72" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
         <v>0.67</v>
@@ -7313,16 +7532,19 @@
       <c r="AD73" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="74" spans="1:30">
+      <c r="AE73" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
         <v>0.13</v>
@@ -7405,16 +7627,19 @@
       <c r="AD74" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:30">
+      <c r="AE74" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" t="n">
         <v>0.25</v>
@@ -7497,16 +7722,19 @@
       <c r="AD75" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:30">
+      <c r="AE75" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
         <v>0.62</v>
@@ -7589,10 +7817,13 @@
       <c r="AD76" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:30">
+      <c r="AE76" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -7606,7 +7837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7614,7 +7845,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7702,13 +7933,16 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -7789,15 +8023,18 @@
         <v>2059</v>
       </c>
       <c r="AC2" t="n">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>2029</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -7878,15 +8115,18 @@
         <v>491</v>
       </c>
       <c r="AC3" t="n">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>480</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -7967,15 +8207,18 @@
         <v>754</v>
       </c>
       <c r="AC4" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>749</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -8056,15 +8299,18 @@
         <v>814</v>
       </c>
       <c r="AC5" t="n">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>800</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
         <v>11</v>
@@ -8145,15 +8391,18 @@
         <v>554</v>
       </c>
       <c r="AC6" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>493</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
         <v>102</v>
@@ -8234,15 +8483,18 @@
         <v>690</v>
       </c>
       <c r="AC7" t="n">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>591</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
         <v>2988</v>
@@ -8325,13 +8577,16 @@
       <c r="AC8" t="n">
         <v>945</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8" t="n">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
         <v>1514</v>
@@ -8412,15 +8667,18 @@
         <v>997</v>
       </c>
       <c r="AC9" t="n">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>980</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
         <v>1587</v>
@@ -8501,15 +8759,18 @@
         <v>1062</v>
       </c>
       <c r="AC10" t="n">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>1049</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
         <v>1726</v>
@@ -8590,15 +8851,18 @@
         <v>1084</v>
       </c>
       <c r="AC11" t="n">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>1058</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="n">
         <v>667</v>
@@ -8679,15 +8943,18 @@
         <v>462</v>
       </c>
       <c r="AC12" t="n">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>466</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
         <v>333</v>
@@ -8770,13 +9037,16 @@
       <c r="AC13" t="n">
         <v>238</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="n">
         <v>375</v>
@@ -8857,15 +9127,18 @@
         <v>272</v>
       </c>
       <c r="AC14" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>267</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="n">
         <v>93</v>
@@ -8948,13 +9221,16 @@
       <c r="AC15" t="n">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="n">
         <v>224</v>
@@ -9037,13 +9313,16 @@
       <c r="AC16" t="n">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="n">
         <v>139</v>
@@ -9126,13 +9405,16 @@
       <c r="AC17" t="n">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="n">
         <v>28</v>
@@ -9215,13 +9497,16 @@
       <c r="AC18" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="n">
         <v>436</v>
@@ -9302,15 +9587,18 @@
         <v>284</v>
       </c>
       <c r="AC19" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>271</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="n">
         <v>861</v>
@@ -9393,13 +9681,16 @@
       <c r="AC20" t="n">
         <v>548</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="n">
         <v>388</v>
@@ -9482,13 +9773,16 @@
       <c r="AC21" t="n">
         <v>246</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" t="n">
         <v>587</v>
@@ -9571,13 +9865,16 @@
       <c r="AC22" t="n">
         <v>378</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="n">
         <v>539</v>
@@ -9658,15 +9955,18 @@
         <v>364</v>
       </c>
       <c r="AC23" t="n">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>356</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" t="n">
         <v>358</v>
@@ -9749,13 +10049,16 @@
       <c r="AC24" t="n">
         <v>235</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" t="n">
         <v>562</v>
@@ -9836,15 +10139,18 @@
         <v>372</v>
       </c>
       <c r="AC25" t="n">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>371</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" t="n">
         <v>667</v>
@@ -9925,12 +10231,15 @@
         <v>450</v>
       </c>
       <c r="AC26" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>443</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -9960,6 +10269,7 @@
       <c r="AA27" t="s"/>
       <c r="AB27" t="s"/>
       <c r="AC27" t="s"/>
+      <c r="AD27" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>trideni</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>25. 5. 2021</t>
+  </si>
+  <si>
+    <t>22. 6. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -215,10 +218,10 @@
     <t>Žena, 55 a více let</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE77"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +604,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,16 +698,19 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>0.21</v>
@@ -790,16 +796,19 @@
       <c r="AE2" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>0.29</v>
@@ -885,16 +894,19 @@
       <c r="AE3" t="n">
         <v>0.43</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
@@ -980,16 +992,19 @@
       <c r="AE4" t="n">
         <v>0.31</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
         <v>0.24</v>
@@ -1075,16 +1090,19 @@
       <c r="AE5" t="n">
         <v>0.34</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>0.32</v>
@@ -1170,16 +1188,19 @@
       <c r="AE6" t="n">
         <v>0.45</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>0.44</v>
@@ -1265,16 +1286,19 @@
       <c r="AE7" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF7" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>0.2</v>
@@ -1360,16 +1384,19 @@
       <c r="AE8" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF8" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>0.27</v>
@@ -1455,16 +1482,19 @@
       <c r="AE9" t="n">
         <v>0.47</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>0.53</v>
@@ -1550,16 +1580,19 @@
       <c r="AE10" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
         <v>0.21</v>
@@ -1645,16 +1678,19 @@
       <c r="AE11" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF11" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
         <v>0.28</v>
@@ -1740,16 +1776,19 @@
       <c r="AE12" t="n">
         <v>0.38</v>
       </c>
+      <c r="AF12" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
       </c>
       <c r="D13" t="n">
         <v>0.51</v>
@@ -1835,16 +1874,19 @@
       <c r="AE13" t="n">
         <v>0.41</v>
       </c>
+      <c r="AF13" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>0.23</v>
@@ -1930,16 +1972,19 @@
       <c r="AE14" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -2025,16 +2070,19 @@
       <c r="AE15" t="n">
         <v>0.43</v>
       </c>
+      <c r="AF15" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
         <v>0.59</v>
@@ -2120,16 +2168,19 @@
       <c r="AE16" t="n">
         <v>0.3</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
@@ -2215,16 +2266,19 @@
       <c r="AE17" t="n">
         <v>0.23</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
         <v>0.38</v>
@@ -2310,16 +2364,19 @@
       <c r="AE18" t="n">
         <v>0.41</v>
       </c>
+      <c r="AF18" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
         <v>0.45</v>
@@ -2405,16 +2462,19 @@
       <c r="AE19" t="n">
         <v>0.36</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
         <v>0.22</v>
@@ -2500,16 +2560,19 @@
       <c r="AE20" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
         <v>0.28</v>
@@ -2595,16 +2658,19 @@
       <c r="AE21" t="n">
         <v>0.44</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
         <v>0.5</v>
@@ -2690,16 +2756,19 @@
       <c r="AE22" t="n">
         <v>0.29</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
         <v>0.31</v>
@@ -2785,16 +2854,19 @@
       <c r="AE23" t="n">
         <v>0.35</v>
       </c>
+      <c r="AF23" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
         <v>0.32</v>
@@ -2880,16 +2952,19 @@
       <c r="AE24" t="n">
         <v>0.41</v>
       </c>
+      <c r="AF24" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
         <v>0.37</v>
@@ -2975,16 +3050,19 @@
       <c r="AE25" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -3070,16 +3148,19 @@
       <c r="AE26" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
         <v>0.26</v>
@@ -3165,16 +3246,19 @@
       <c r="AE27" t="n">
         <v>0.45</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -3260,16 +3344,19 @@
       <c r="AE28" t="n">
         <v>0.37</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
         <v>0.22</v>
@@ -3355,16 +3442,19 @@
       <c r="AE29" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF29" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
         <v>0.27</v>
@@ -3450,16 +3540,19 @@
       <c r="AE30" t="n">
         <v>0.41</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="n">
         <v>0.51</v>
@@ -3545,16 +3638,19 @@
       <c r="AE31" t="n">
         <v>0.34</v>
       </c>
+      <c r="AF31" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="n">
         <v>0.17</v>
@@ -3640,16 +3736,19 @@
       <c r="AE32" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
         <v>0.3</v>
@@ -3735,16 +3834,19 @@
       <c r="AE33" t="n">
         <v>0.45</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="n">
         <v>0.53</v>
@@ -3830,16 +3932,19 @@
       <c r="AE34" t="n">
         <v>0.29</v>
       </c>
+      <c r="AF34" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
         <v>0.25</v>
@@ -3925,16 +4030,19 @@
       <c r="AE35" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
         <v>0.27</v>
@@ -4020,16 +4128,19 @@
       <c r="AE36" t="n">
         <v>0.43</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" t="n">
         <v>0.48</v>
@@ -4115,16 +4226,19 @@
       <c r="AE37" t="n">
         <v>0.3</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
         <v>0.24</v>
@@ -4210,16 +4324,19 @@
       <c r="AE38" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -4305,16 +4422,19 @@
       <c r="AE39" t="n">
         <v>0.44</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="n">
         <v>0.45</v>
@@ -4400,16 +4520,19 @@
       <c r="AE40" t="n">
         <v>0.29</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
         <v>0.15</v>
@@ -4495,16 +4618,19 @@
       <c r="AE41" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" t="n">
         <v>0.22</v>
@@ -4590,16 +4716,19 @@
       <c r="AE42" t="n">
         <v>0.44</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -4685,16 +4814,19 @@
       <c r="AE43" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
         <v>0.22</v>
@@ -4780,16 +4912,19 @@
       <c r="AE44" t="n">
         <v>0.3</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -4875,16 +5010,19 @@
       <c r="AE45" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" t="n">
         <v>0.49</v>
@@ -4970,16 +5108,19 @@
       <c r="AE46" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF46" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>0.21</v>
@@ -5065,16 +5206,19 @@
       <c r="AE47" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF47" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
         <v>0.26</v>
@@ -5160,16 +5304,19 @@
       <c r="AE48" t="n">
         <v>0.44</v>
       </c>
+      <c r="AF48" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
         <v>0.53</v>
@@ -5255,16 +5402,19 @@
       <c r="AE49" t="n">
         <v>0.29</v>
       </c>
+      <c r="AF49" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
         <v>0.11</v>
@@ -5350,16 +5500,19 @@
       <c r="AE50" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF50" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
         <v>0.18</v>
@@ -5445,16 +5598,19 @@
       <c r="AE51" t="n">
         <v>0.53</v>
       </c>
+      <c r="AF51" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" t="n">
         <v>0.71</v>
@@ -5540,16 +5696,19 @@
       <c r="AE52" t="n">
         <v>0.31</v>
       </c>
+      <c r="AF52" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
         <v>0.17</v>
@@ -5635,16 +5794,19 @@
       <c r="AE53" t="n">
         <v>0.33</v>
       </c>
+      <c r="AF53" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
         <v>0.31</v>
@@ -5730,16 +5892,19 @@
       <c r="AE54" t="n">
         <v>0.43</v>
       </c>
+      <c r="AF54" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="n">
         <v>0.52</v>
@@ -5825,16 +5990,19 @@
       <c r="AE55" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF55" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
         <v>0.25</v>
@@ -5920,16 +6088,19 @@
       <c r="AE56" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF56" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -6015,16 +6186,19 @@
       <c r="AE57" t="n">
         <v>0.44</v>
       </c>
+      <c r="AF57" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D58" t="n">
         <v>0.44</v>
@@ -6110,16 +6284,19 @@
       <c r="AE58" t="n">
         <v>0.29</v>
       </c>
+      <c r="AF58" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
         <v>0.32</v>
@@ -6205,16 +6382,19 @@
       <c r="AE59" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF59" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
         <v>0.34</v>
@@ -6300,16 +6480,19 @@
       <c r="AE60" t="n">
         <v>0.39</v>
       </c>
+      <c r="AF60" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:32">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D61" t="n">
         <v>0.34</v>
@@ -6395,16 +6578,19 @@
       <c r="AE61" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D62" t="n">
         <v>0.3</v>
@@ -6490,16 +6676,19 @@
       <c r="AE62" t="n">
         <v>0.34</v>
       </c>
+      <c r="AF62" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
         <v>0.3</v>
@@ -6585,16 +6774,19 @@
       <c r="AE63" t="n">
         <v>0.42</v>
       </c>
+      <c r="AF63" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -6680,16 +6872,19 @@
       <c r="AE64" t="n">
         <v>0.24</v>
       </c>
+      <c r="AF64" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:32">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" t="n">
         <v>0.31</v>
@@ -6775,16 +6970,19 @@
       <c r="AE65" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF65" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
         <v>0.32</v>
@@ -6870,16 +7068,19 @@
       <c r="AE66" t="n">
         <v>0.4</v>
       </c>
+      <c r="AF66" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" t="n">
         <v>0.37</v>
@@ -6965,16 +7166,19 @@
       <c r="AE67" t="n">
         <v>0.33</v>
       </c>
+      <c r="AF67" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:32">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" t="n">
         <v>0.16</v>
@@ -7060,16 +7264,19 @@
       <c r="AE68" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF68" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:32">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
         <v>0.29</v>
@@ -7155,16 +7362,19 @@
       <c r="AE69" t="n">
         <v>0.51</v>
       </c>
+      <c r="AF69" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:32">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D70" t="n">
         <v>0.55</v>
@@ -7250,16 +7460,19 @@
       <c r="AE70" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF70" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:32">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" t="n">
         <v>0.09</v>
@@ -7345,16 +7558,19 @@
       <c r="AE71" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF71" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:32">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
         <v>0.24</v>
@@ -7440,16 +7656,19 @@
       <c r="AE72" t="n">
         <v>0.51</v>
       </c>
+      <c r="AF72" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:32">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D73" t="n">
         <v>0.67</v>
@@ -7535,16 +7754,19 @@
       <c r="AE73" t="n">
         <v>0.32</v>
       </c>
+      <c r="AF73" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:32">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
         <v>0.13</v>
@@ -7630,16 +7852,19 @@
       <c r="AE74" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF74" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:32">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
         <v>0.25</v>
@@ -7725,16 +7950,19 @@
       <c r="AE75" t="n">
         <v>0.36</v>
       </c>
+      <c r="AF75" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:32">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D76" t="n">
         <v>0.62</v>
@@ -7820,10 +8048,13 @@
       <c r="AE76" t="n">
         <v>0.48</v>
       </c>
+      <c r="AF76" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:32">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -7837,7 +8068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7845,7 +8076,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7936,13 +8167,16 @@
       <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -8028,13 +8262,16 @@
       <c r="AD2" t="n">
         <v>1975</v>
       </c>
+      <c r="AE2" t="n">
+        <v>1904</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -8120,13 +8357,16 @@
       <c r="AD3" t="n">
         <v>471</v>
       </c>
+      <c r="AE3" t="n">
+        <v>459</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -8212,13 +8452,16 @@
       <c r="AD4" t="n">
         <v>729</v>
       </c>
+      <c r="AE4" t="n">
+        <v>699</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -8304,13 +8547,16 @@
       <c r="AD5" t="n">
         <v>775</v>
       </c>
+      <c r="AE5" t="n">
+        <v>746</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
         <v>11</v>
@@ -8396,13 +8642,16 @@
       <c r="AD6" t="n">
         <v>443</v>
       </c>
+      <c r="AE6" t="n">
+        <v>377</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
         <v>102</v>
@@ -8488,13 +8737,16 @@
       <c r="AD7" t="n">
         <v>528</v>
       </c>
+      <c r="AE7" t="n">
+        <v>420</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
         <v>2988</v>
@@ -8580,13 +8832,16 @@
       <c r="AD8" t="n">
         <v>1004</v>
       </c>
+      <c r="AE8" t="n">
+        <v>1107</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
         <v>1514</v>
@@ -8672,13 +8927,16 @@
       <c r="AD9" t="n">
         <v>956</v>
       </c>
+      <c r="AE9" t="n">
+        <v>937</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>1587</v>
@@ -8764,13 +9022,16 @@
       <c r="AD10" t="n">
         <v>1019</v>
       </c>
+      <c r="AE10" t="n">
+        <v>967</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="n">
         <v>1726</v>
@@ -8856,13 +9117,16 @@
       <c r="AD11" t="n">
         <v>1029</v>
       </c>
+      <c r="AE11" t="n">
+        <v>983</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
         <v>667</v>
@@ -8948,13 +9212,16 @@
       <c r="AD12" t="n">
         <v>456</v>
       </c>
+      <c r="AE12" t="n">
+        <v>447</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="n">
         <v>333</v>
@@ -9040,13 +9307,16 @@
       <c r="AD13" t="n">
         <v>230</v>
       </c>
+      <c r="AE13" t="n">
+        <v>223</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="n">
         <v>375</v>
@@ -9132,13 +9402,16 @@
       <c r="AD14" t="n">
         <v>260</v>
       </c>
+      <c r="AE14" t="n">
+        <v>251</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="n">
         <v>93</v>
@@ -9224,13 +9497,16 @@
       <c r="AD15" t="n">
         <v>53</v>
       </c>
+      <c r="AE15" t="n">
+        <v>48</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n">
         <v>224</v>
@@ -9316,13 +9592,16 @@
       <c r="AD16" t="n">
         <v>150</v>
       </c>
+      <c r="AE16" t="n">
+        <v>147</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="n">
         <v>139</v>
@@ -9408,13 +9687,16 @@
       <c r="AD17" t="n">
         <v>97</v>
       </c>
+      <c r="AE17" t="n">
+        <v>99</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="n">
         <v>28</v>
@@ -9500,13 +9782,16 @@
       <c r="AD18" t="n">
         <v>17</v>
       </c>
+      <c r="AE18" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="n">
         <v>436</v>
@@ -9592,13 +9877,16 @@
       <c r="AD19" t="n">
         <v>272</v>
       </c>
+      <c r="AE19" t="n">
+        <v>262</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="n">
         <v>861</v>
@@ -9684,13 +9972,16 @@
       <c r="AD20" t="n">
         <v>529</v>
       </c>
+      <c r="AE20" t="n">
+        <v>510</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="n">
         <v>388</v>
@@ -9776,13 +10067,16 @@
       <c r="AD21" t="n">
         <v>239</v>
       </c>
+      <c r="AE21" t="n">
+        <v>239</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="n">
         <v>587</v>
@@ -9868,13 +10162,16 @@
       <c r="AD22" t="n">
         <v>369</v>
       </c>
+      <c r="AE22" t="n">
+        <v>365</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="n">
         <v>539</v>
@@ -9960,13 +10257,16 @@
       <c r="AD23" t="n">
         <v>348</v>
       </c>
+      <c r="AE23" t="n">
+        <v>334</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="n">
         <v>358</v>
@@ -10052,13 +10352,16 @@
       <c r="AD24" t="n">
         <v>232</v>
       </c>
+      <c r="AE24" t="n">
+        <v>220</v>
+      </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" t="n">
         <v>562</v>
@@ -10144,13 +10447,16 @@
       <c r="AD25" t="n">
         <v>360</v>
       </c>
+      <c r="AE25" t="n">
+        <v>335</v>
+      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" t="n">
         <v>667</v>
@@ -10236,10 +10542,13 @@
       <c r="AD26" t="n">
         <v>427</v>
       </c>
+      <c r="AE26" t="n">
+        <v>411</v>
+      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -10270,6 +10579,7 @@
       <c r="AB27" t="s"/>
       <c r="AC27" t="s"/>
       <c r="AD27" t="s"/>
+      <c r="AE27" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,218 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
-  <si>
-    <t>trideni</t>
-  </si>
-  <si>
-    <t>kategorie trideni</t>
-  </si>
-  <si>
-    <t>ukazatel</t>
-  </si>
-  <si>
-    <t>19. 3. 2020</t>
-  </si>
-  <si>
-    <t>1. 4. 2020</t>
-  </si>
-  <si>
-    <t>15. 4. 2020</t>
-  </si>
-  <si>
-    <t>28. 4. 2020</t>
-  </si>
-  <si>
-    <t>12. 5. 2020</t>
-  </si>
-  <si>
-    <t>26. 5. 2020</t>
-  </si>
-  <si>
-    <t>16. 6. 2020</t>
-  </si>
-  <si>
-    <t>30. 6. 2020</t>
-  </si>
-  <si>
-    <t>21. 7. 2020</t>
-  </si>
-  <si>
-    <t>11. 8. 2020</t>
-  </si>
-  <si>
-    <t>1. 9. 2020</t>
-  </si>
-  <si>
-    <t>15. 9. 2020</t>
-  </si>
-  <si>
-    <t>30. 9. 2020</t>
-  </si>
-  <si>
-    <t>13. 10. 2020</t>
-  </si>
-  <si>
-    <t>27. 10. 2020</t>
-  </si>
-  <si>
-    <t>10. 11. 2020</t>
-  </si>
-  <si>
-    <t>24. 11. 2020</t>
-  </si>
-  <si>
-    <t>8. 12. 2020</t>
-  </si>
-  <si>
-    <t>22. 12. 2020</t>
-  </si>
-  <si>
-    <t>5. 1. 2021</t>
-  </si>
-  <si>
-    <t>26. 1. 2021</t>
-  </si>
-  <si>
-    <t>16. 2. 2021</t>
-  </si>
-  <si>
-    <t>2. 3. 2021</t>
-  </si>
-  <si>
-    <t>16. 3. 2021</t>
-  </si>
-  <si>
-    <t>30. 3. 2021</t>
-  </si>
-  <si>
-    <t>13. 4. 2021</t>
-  </si>
-  <si>
-    <t>4. 5. 2021</t>
-  </si>
-  <si>
-    <t>25. 5. 2021</t>
-  </si>
-  <si>
-    <t>22. 6. 2021</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Celkem</t>
-  </si>
-  <si>
-    <t>Klidný</t>
-  </si>
-  <si>
-    <t>Částečné starosti</t>
-  </si>
-  <si>
-    <t>Velké starosti</t>
-  </si>
-  <si>
-    <t>Věk</t>
-  </si>
-  <si>
-    <t>18 až 34 let</t>
-  </si>
-  <si>
-    <t>35 až 54 let</t>
-  </si>
-  <si>
-    <t>55 a více let</t>
-  </si>
-  <si>
-    <t>Znalost nakaženého</t>
-  </si>
-  <si>
-    <t>Ano, v přímém či nepřímém kontaktu</t>
-  </si>
-  <si>
-    <t>Ano, ale nebyli v kontaktu</t>
-  </si>
-  <si>
-    <t>Nezná nakaženého</t>
-  </si>
-  <si>
-    <t>Pohlaví</t>
-  </si>
-  <si>
-    <t>Muž</t>
-  </si>
-  <si>
-    <t>Žena</t>
-  </si>
-  <si>
-    <t>Velikost místa bydliště</t>
-  </si>
-  <si>
-    <t>Méně než 20 000 obyvatel</t>
-  </si>
-  <si>
-    <t>20 000 až 99 999 obyvatel</t>
-  </si>
-  <si>
-    <t>100 000 a více obyvatel</t>
-  </si>
-  <si>
-    <t>Praha</t>
-  </si>
-  <si>
-    <t>Riziková oblast zaměstnání</t>
-  </si>
-  <si>
-    <t>Zdravotnictví, pečovatelství</t>
-  </si>
-  <si>
-    <t>Školy, úřady</t>
-  </si>
-  <si>
-    <t>Služby, pohostinství</t>
-  </si>
-  <si>
-    <t>Řidič/ka hromadné dopravy, taxi</t>
-  </si>
-  <si>
-    <t>Zaměstnání s velkým množstvím kontaktů</t>
-  </si>
-  <si>
-    <t>Zaměstnání mimo rizikové skupiny</t>
-  </si>
-  <si>
-    <t>Pohlaví a věk</t>
-  </si>
-  <si>
-    <t>Muž, 18–34 let</t>
-  </si>
-  <si>
-    <t>Muž, 35–54 let</t>
-  </si>
-  <si>
-    <t>Muž, 55 a více let</t>
-  </si>
-  <si>
-    <t>Žena, 18–34 let</t>
-  </si>
-  <si>
-    <t>Žena, 35–54 let</t>
-  </si>
-  <si>
-    <t>Žena, 55 a více let</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -285,25 +73,92 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -596,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF77"/>
+  <dimension ref="A1:AG77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,113 +459,188 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ukazatel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>19. 3. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0.21</v>
@@ -799,16 +729,25 @@
       <c r="AF2" t="n">
         <v>0.3</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0.29</v>
@@ -897,16 +836,25 @@
       <c r="AF3" t="n">
         <v>0.42</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
@@ -995,16 +943,25 @@
       <c r="AF4" t="n">
         <v>0.28</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0.24</v>
@@ -1093,16 +1050,25 @@
       <c r="AF5" t="n">
         <v>0.43</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0.32</v>
@@ -1191,16 +1157,25 @@
       <c r="AF6" t="n">
         <v>0.42</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0.44</v>
@@ -1289,16 +1264,25 @@
       <c r="AF7" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG7" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0.2</v>
@@ -1387,16 +1371,25 @@
       <c r="AF8" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0.27</v>
@@ -1485,16 +1478,25 @@
       <c r="AF9" t="n">
         <v>0.45</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0.53</v>
@@ -1583,16 +1585,25 @@
       <c r="AF10" t="n">
         <v>0.26</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0.21</v>
@@ -1681,16 +1692,25 @@
       <c r="AF11" t="n">
         <v>0.23</v>
       </c>
+      <c r="AG11" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0.28</v>
@@ -1779,16 +1799,25 @@
       <c r="AF12" t="n">
         <v>0.4</v>
       </c>
+      <c r="AG12" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0.51</v>
@@ -1877,16 +1906,25 @@
       <c r="AF13" t="n">
         <v>0.37</v>
       </c>
+      <c r="AG13" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0.23</v>
@@ -1975,16 +2013,25 @@
       <c r="AF14" t="n">
         <v>0.27</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0.18</v>
@@ -2073,16 +2120,25 @@
       <c r="AF15" t="n">
         <v>0.46</v>
       </c>
+      <c r="AG15" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0.59</v>
@@ -2171,16 +2227,25 @@
       <c r="AF16" t="n">
         <v>0.27</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0.17</v>
@@ -2269,16 +2334,25 @@
       <c r="AF17" t="n">
         <v>0.3</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>0.38</v>
@@ -2367,16 +2441,25 @@
       <c r="AF18" t="n">
         <v>0.42</v>
       </c>
+      <c r="AG18" t="n">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>0.45</v>
@@ -2465,16 +2548,25 @@
       <c r="AF19" t="n">
         <v>0.28</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0.22</v>
@@ -2563,16 +2655,25 @@
       <c r="AF20" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0.28</v>
@@ -2661,16 +2762,25 @@
       <c r="AF21" t="n">
         <v>0.41</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="22" spans="1:32">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0.5</v>
@@ -2759,16 +2869,25 @@
       <c r="AF22" t="n">
         <v>0.28</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="23" spans="1:32">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>0.31</v>
@@ -2857,16 +2976,25 @@
       <c r="AF23" t="n">
         <v>0.36</v>
       </c>
+      <c r="AG23" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>0.32</v>
@@ -2955,16 +3083,25 @@
       <c r="AF24" t="n">
         <v>0.4</v>
       </c>
+      <c r="AG24" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0.37</v>
@@ -3053,16 +3190,25 @@
       <c r="AF25" t="n">
         <v>0.24</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="26" spans="1:32">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>0.12</v>
@@ -3151,16 +3297,25 @@
       <c r="AF26" t="n">
         <v>0.24</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="27" spans="1:32">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0.26</v>
@@ -3249,16 +3404,25 @@
       <c r="AF27" t="n">
         <v>0.44</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="28" spans="1:32">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>0.62</v>
@@ -3347,16 +3511,25 @@
       <c r="AF28" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="29" spans="1:32">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>0.22</v>
@@ -3445,16 +3618,25 @@
       <c r="AF29" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG29" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="30" spans="1:32">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0.27</v>
@@ -3543,16 +3725,25 @@
       <c r="AF30" t="n">
         <v>0.42</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>0.51</v>
@@ -3641,16 +3832,25 @@
       <c r="AF31" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG31" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="32" spans="1:32">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>0.17</v>
@@ -3739,16 +3939,25 @@
       <c r="AF32" t="n">
         <v>0.34</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="33" spans="1:32">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>0.3</v>
@@ -3837,16 +4046,25 @@
       <c r="AF33" t="n">
         <v>0.39</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="34" spans="1:32">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>0.53</v>
@@ -3935,16 +4153,25 @@
       <c r="AF34" t="n">
         <v>0.27</v>
       </c>
+      <c r="AG34" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="35" spans="1:32">
-      <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>0.25</v>
@@ -4033,16 +4260,25 @@
       <c r="AF35" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="36" spans="1:32">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>0.27</v>
@@ -4131,16 +4367,25 @@
       <c r="AF36" t="n">
         <v>0.45</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="37" spans="1:32">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>0.48</v>
@@ -4229,16 +4474,25 @@
       <c r="AF37" t="n">
         <v>0.26</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="38" spans="1:32">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>0.24</v>
@@ -4327,16 +4581,25 @@
       <c r="AF38" t="n">
         <v>0.26</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="39" spans="1:32">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -4425,16 +4688,25 @@
       <c r="AF39" t="n">
         <v>0.46</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="40" spans="1:32">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>0.45</v>
@@ -4523,16 +4795,25 @@
       <c r="AF40" t="n">
         <v>0.28</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="41" spans="1:32">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Zdravotnictví, pečovatelství</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D41" t="n">
         <v>0.15</v>
@@ -4621,16 +4902,25 @@
       <c r="AF41" t="n">
         <v>0.11</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" t="s">
-        <v>35</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Zdravotnictví, pečovatelství</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>0.22</v>
@@ -4719,16 +5009,25 @@
       <c r="AF42" t="n">
         <v>0.61</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="43" spans="1:32">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Zdravotnictví, pečovatelství</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D43" t="n">
         <v>0.63</v>
@@ -4817,16 +5116,25 @@
       <c r="AF43" t="n">
         <v>0.28</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="44" spans="1:32">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Školy, úřady</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>0.22</v>
@@ -4915,16 +5223,25 @@
       <c r="AF44" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="45" spans="1:32">
-      <c r="A45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Školy, úřady</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0.29</v>
@@ -5013,16 +5330,25 @@
       <c r="AF45" t="n">
         <v>0.37</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="46" spans="1:32">
-      <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>36</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Školy, úřady</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>0.49</v>
@@ -5111,16 +5437,25 @@
       <c r="AF46" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG46" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="47" spans="1:32">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Služby, pohostinství</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>0.21</v>
@@ -5209,16 +5544,25 @@
       <c r="AF47" t="n">
         <v>0.28</v>
       </c>
+      <c r="AG47" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="48" spans="1:32">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Služby, pohostinství</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>0.26</v>
@@ -5307,16 +5651,25 @@
       <c r="AF48" t="n">
         <v>0.46</v>
       </c>
+      <c r="AG48" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="49" spans="1:32">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Služby, pohostinství</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>0.53</v>
@@ -5405,16 +5758,25 @@
       <c r="AF49" t="n">
         <v>0.26</v>
       </c>
+      <c r="AG49" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="50" spans="1:32">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" t="s">
-        <v>34</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Řidič/ka hromadné dopravy, taxi</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>0.11</v>
@@ -5503,16 +5865,25 @@
       <c r="AF50" t="n">
         <v>0.5</v>
       </c>
+      <c r="AG50" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="51" spans="1:32">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" t="s">
-        <v>35</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Řidič/ka hromadné dopravy, taxi</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>0.18</v>
@@ -5601,16 +5972,25 @@
       <c r="AF51" t="n">
         <v>0.36</v>
       </c>
+      <c r="AG51" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="52" spans="1:32">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Řidič/ka hromadné dopravy, taxi</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>0.71</v>
@@ -5699,16 +6079,25 @@
       <c r="AF52" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG52" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="53" spans="1:32">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Zaměstnání s velkým množstvím kontaktů</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>0.17</v>
@@ -5797,16 +6186,25 @@
       <c r="AF53" t="n">
         <v>0.35</v>
       </c>
+      <c r="AG53" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="54" spans="1:32">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s">
-        <v>35</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Zaměstnání s velkým množstvím kontaktů</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>0.31</v>
@@ -5895,16 +6293,25 @@
       <c r="AF54" t="n">
         <v>0.43</v>
       </c>
+      <c r="AG54" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="55" spans="1:32">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Zaměstnání s velkým množstvím kontaktů</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>0.52</v>
@@ -5993,16 +6400,25 @@
       <c r="AF55" t="n">
         <v>0.22</v>
       </c>
+      <c r="AG55" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="56" spans="1:32">
-      <c r="A56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Zaměstnání mimo rizikové skupiny</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>0.25</v>
@@ -6091,16 +6507,25 @@
       <c r="AF56" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG56" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="57" spans="1:32">
-      <c r="A57" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" t="s">
-        <v>35</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Zaměstnání mimo rizikové skupiny</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>0.31</v>
@@ -6189,16 +6614,25 @@
       <c r="AF57" t="n">
         <v>0.42</v>
       </c>
+      <c r="AG57" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="58" spans="1:32">
-      <c r="A58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Zaměstnání mimo rizikové skupiny</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>0.44</v>
@@ -6287,16 +6721,25 @@
       <c r="AF58" t="n">
         <v>0.25</v>
       </c>
+      <c r="AG58" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="59" spans="1:32">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" t="s">
-        <v>34</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D59" t="n">
         <v>0.32</v>
@@ -6385,16 +6828,25 @@
       <c r="AF59" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG59" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="60" spans="1:32">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>35</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D60" t="n">
         <v>0.34</v>
@@ -6483,16 +6935,25 @@
       <c r="AF60" t="n">
         <v>0.36</v>
       </c>
+      <c r="AG60" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="61" spans="1:32">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" t="s">
-        <v>36</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D61" t="n">
         <v>0.34</v>
@@ -6581,16 +7042,25 @@
       <c r="AF61" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="62" spans="1:32">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" t="s">
-        <v>34</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D62" t="n">
         <v>0.3</v>
@@ -6679,16 +7149,25 @@
       <c r="AF62" t="n">
         <v>0.37</v>
       </c>
+      <c r="AG62" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="63" spans="1:32">
-      <c r="A63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" t="s">
-        <v>35</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D63" t="n">
         <v>0.3</v>
@@ -6777,16 +7256,25 @@
       <c r="AF63" t="n">
         <v>0.42</v>
       </c>
+      <c r="AG63" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="64" spans="1:32">
-      <c r="A64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" t="s">
-        <v>36</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D64" t="n">
         <v>0.4</v>
@@ -6875,16 +7363,25 @@
       <c r="AF64" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG64" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="65" spans="1:32">
-      <c r="A65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" t="s">
-        <v>34</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D65" t="n">
         <v>0.31</v>
@@ -6973,16 +7470,25 @@
       <c r="AF65" t="n">
         <v>0.27</v>
       </c>
+      <c r="AG65" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="66" spans="1:32">
-      <c r="A66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" t="s">
-        <v>35</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D66" t="n">
         <v>0.32</v>
@@ -7071,16 +7577,25 @@
       <c r="AF66" t="n">
         <v>0.41</v>
       </c>
+      <c r="AG66" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="67" spans="1:32">
-      <c r="A67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" t="s">
-        <v>36</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D67" t="n">
         <v>0.37</v>
@@ -7169,16 +7684,25 @@
       <c r="AF67" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG67" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="68" spans="1:32">
-      <c r="A68" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" t="s">
-        <v>34</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D68" t="n">
         <v>0.16</v>
@@ -7267,16 +7791,25 @@
       <c r="AF68" t="n">
         <v>0.38</v>
       </c>
+      <c r="AG68" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="69" spans="1:32">
-      <c r="A69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69" t="s">
-        <v>35</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D69" t="n">
         <v>0.29</v>
@@ -7365,16 +7898,25 @@
       <c r="AF69" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG69" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="70" spans="1:32">
-      <c r="A70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" t="s">
-        <v>36</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D70" t="n">
         <v>0.55</v>
@@ -7463,16 +8005,25 @@
       <c r="AF70" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG70" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="71" spans="1:32">
-      <c r="A71" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" t="s">
-        <v>34</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D71" t="n">
         <v>0.09</v>
@@ -7561,16 +8112,25 @@
       <c r="AF71" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG71" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="72" spans="1:32">
-      <c r="A72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" t="s">
-        <v>35</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D72" t="n">
         <v>0.24</v>
@@ -7659,16 +8219,25 @@
       <c r="AF72" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG72" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="73" spans="1:32">
-      <c r="A73" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" t="s">
-        <v>36</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D73" t="n">
         <v>0.67</v>
@@ -7757,16 +8326,25 @@
       <c r="AF73" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG73" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="74" spans="1:32">
-      <c r="A74" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" t="s">
-        <v>34</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="D74" t="n">
         <v>0.13</v>
@@ -7855,16 +8433,25 @@
       <c r="AF74" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG74" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="75" spans="1:32">
-      <c r="A75" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" t="s">
-        <v>35</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="D75" t="n">
         <v>0.25</v>
@@ -7953,16 +8540,25 @@
       <c r="AF75" t="n">
         <v>0.4</v>
       </c>
+      <c r="AG75" t="n">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="76" spans="1:32">
-      <c r="A76" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" t="s">
-        <v>36</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="D76" t="n">
         <v>0.62</v>
@@ -8051,14 +8647,19 @@
       <c r="AF76" t="n">
         <v>0.41</v>
       </c>
+      <c r="AG76" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="77" spans="1:32">
-      <c r="A77" t="s">
-        <v>67</v>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8068,7 +8669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE27"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8076,107 +8677,178 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>19. 3. 2020</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -8265,13 +8937,20 @@
       <c r="AE2" t="n">
         <v>1904</v>
       </c>
+      <c r="AF2" t="n">
+        <v>1782</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -8360,13 +9039,20 @@
       <c r="AE3" t="n">
         <v>459</v>
       </c>
+      <c r="AF3" t="n">
+        <v>430</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -8455,13 +9141,20 @@
       <c r="AE4" t="n">
         <v>699</v>
       </c>
+      <c r="AF4" t="n">
+        <v>648</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -8550,13 +9243,20 @@
       <c r="AE5" t="n">
         <v>746</v>
       </c>
+      <c r="AF5" t="n">
+        <v>704</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>11</v>
@@ -8645,13 +9345,20 @@
       <c r="AE6" t="n">
         <v>377</v>
       </c>
+      <c r="AF6" t="n">
+        <v>327</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>102</v>
@@ -8740,13 +9447,20 @@
       <c r="AE7" t="n">
         <v>420</v>
       </c>
+      <c r="AF7" t="n">
+        <v>349</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>2988</v>
@@ -8835,13 +9549,20 @@
       <c r="AE8" t="n">
         <v>1107</v>
       </c>
+      <c r="AF8" t="n">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>1514</v>
@@ -8930,13 +9651,20 @@
       <c r="AE9" t="n">
         <v>937</v>
       </c>
+      <c r="AF9" t="n">
+        <v>863</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>1587</v>
@@ -9025,13 +9753,20 @@
       <c r="AE10" t="n">
         <v>967</v>
       </c>
+      <c r="AF10" t="n">
+        <v>919</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>1726</v>
@@ -9120,13 +9855,20 @@
       <c r="AE11" t="n">
         <v>983</v>
       </c>
+      <c r="AF11" t="n">
+        <v>923</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>667</v>
@@ -9215,13 +9957,20 @@
       <c r="AE12" t="n">
         <v>447</v>
       </c>
+      <c r="AF12" t="n">
+        <v>417</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>333</v>
@@ -9310,13 +10059,20 @@
       <c r="AE13" t="n">
         <v>223</v>
       </c>
+      <c r="AF13" t="n">
+        <v>208</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>375</v>
@@ -9405,13 +10161,20 @@
       <c r="AE14" t="n">
         <v>251</v>
       </c>
+      <c r="AF14" t="n">
+        <v>234</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Zdravotnictví, pečovatelství</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>93</v>
@@ -9500,13 +10263,20 @@
       <c r="AE15" t="n">
         <v>48</v>
       </c>
+      <c r="AF15" t="n">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Školy, úřady</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>224</v>
@@ -9595,13 +10365,20 @@
       <c r="AE16" t="n">
         <v>147</v>
       </c>
+      <c r="AF16" t="n">
+        <v>143</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Služby, pohostinství</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>139</v>
@@ -9690,13 +10467,20 @@
       <c r="AE17" t="n">
         <v>99</v>
       </c>
+      <c r="AF17" t="n">
+        <v>89</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Řidič/ka hromadné dopravy, taxi</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>28</v>
@@ -9785,13 +10569,20 @@
       <c r="AE18" t="n">
         <v>14</v>
       </c>
+      <c r="AF18" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Zaměstnání s velkým množstvím kontaktů</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>436</v>
@@ -9880,13 +10671,20 @@
       <c r="AE19" t="n">
         <v>262</v>
       </c>
+      <c r="AF19" t="n">
+        <v>251</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Riziková oblast zaměstnání</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Zaměstnání mimo rizikové skupiny</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>861</v>
@@ -9975,13 +10773,20 @@
       <c r="AE20" t="n">
         <v>510</v>
       </c>
+      <c r="AF20" t="n">
+        <v>477</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>388</v>
@@ -10070,13 +10875,20 @@
       <c r="AE21" t="n">
         <v>239</v>
       </c>
+      <c r="AF21" t="n">
+        <v>225</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>587</v>
@@ -10165,13 +10977,20 @@
       <c r="AE22" t="n">
         <v>365</v>
       </c>
+      <c r="AF22" t="n">
+        <v>326</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>539</v>
@@ -10260,13 +11079,20 @@
       <c r="AE23" t="n">
         <v>334</v>
       </c>
+      <c r="AF23" t="n">
+        <v>312</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>358</v>
@@ -10355,13 +11181,20 @@
       <c r="AE24" t="n">
         <v>220</v>
       </c>
+      <c r="AF24" t="n">
+        <v>206</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>562</v>
@@ -10450,13 +11283,20 @@
       <c r="AE25" t="n">
         <v>335</v>
       </c>
+      <c r="AF25" t="n">
+        <v>322</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>667</v>
@@ -10545,43 +11385,49 @@
       <c r="AE26" t="n">
         <v>411</v>
       </c>
+      <c r="AF26" t="n">
+        <v>391</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
-      <c r="D27" t="s"/>
-      <c r="E27" t="s"/>
-      <c r="F27" t="s"/>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s"/>
-      <c r="J27" t="s"/>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
-      <c r="M27" t="s"/>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
-      <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
-      <c r="V27" t="s"/>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
-      <c r="Z27" t="s"/>
-      <c r="AA27" t="s"/>
-      <c r="AB27" t="s"/>
-      <c r="AC27" t="s"/>
-      <c r="AD27" t="s"/>
-      <c r="AE27" t="s"/>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG77"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,9 @@
       <c r="AG2" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -839,6 +847,9 @@
       <c r="AG3" t="n">
         <v>0.43</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -946,6 +957,9 @@
       <c r="AG4" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1053,6 +1067,9 @@
       <c r="AG5" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1160,6 +1177,9 @@
       <c r="AG6" t="n">
         <v>0.48</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1267,6 +1287,9 @@
       <c r="AG7" t="n">
         <v>0.23</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1374,6 +1397,9 @@
       <c r="AG8" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1481,6 +1507,9 @@
       <c r="AG9" t="n">
         <v>0.45</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1588,6 +1617,9 @@
       <c r="AG10" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1695,6 +1727,9 @@
       <c r="AG11" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1802,6 +1837,9 @@
       <c r="AG12" t="n">
         <v>0.38</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1909,6 +1947,9 @@
       <c r="AG13" t="n">
         <v>0.41</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2016,6 +2057,9 @@
       <c r="AG14" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2123,6 +2167,9 @@
       <c r="AG15" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2230,6 +2277,9 @@
       <c r="AG16" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2337,6 +2387,9 @@
       <c r="AG17" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2444,6 +2497,9 @@
       <c r="AG18" t="n">
         <v>0.39</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2551,6 +2607,9 @@
       <c r="AG19" t="n">
         <v>0.37</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2658,6 +2717,9 @@
       <c r="AG20" t="n">
         <v>0.27</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2765,6 +2827,9 @@
       <c r="AG21" t="n">
         <v>0.42</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2872,6 +2937,9 @@
       <c r="AG22" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2979,6 +3047,9 @@
       <c r="AG23" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3086,6 +3157,9 @@
       <c r="AG24" t="n">
         <v>0.42</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3193,6 +3267,9 @@
       <c r="AG25" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3300,6 +3377,9 @@
       <c r="AG26" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3407,6 +3487,9 @@
       <c r="AG27" t="n">
         <v>0.44</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3514,6 +3597,9 @@
       <c r="AG28" t="n">
         <v>0.36</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3621,6 +3707,9 @@
       <c r="AG29" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3728,6 +3817,9 @@
       <c r="AG30" t="n">
         <v>0.45</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3835,6 +3927,9 @@
       <c r="AG31" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3942,6 +4037,9 @@
       <c r="AG32" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4049,6 +4147,9 @@
       <c r="AG33" t="n">
         <v>0.41</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4156,6 +4257,9 @@
       <c r="AG34" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4263,6 +4367,9 @@
       <c r="AG35" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4370,6 +4477,9 @@
       <c r="AG36" t="n">
         <v>0.39</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4477,6 +4587,9 @@
       <c r="AG37" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4584,6 +4697,9 @@
       <c r="AG38" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4691,6 +4807,9 @@
       <c r="AG39" t="n">
         <v>0.43</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4798,6 +4917,9 @@
       <c r="AG40" t="n">
         <v>0.33</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4905,6 +5027,9 @@
       <c r="AG41" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5012,6 +5137,9 @@
       <c r="AG42" t="n">
         <v>0.5</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5119,6 +5247,9 @@
       <c r="AG43" t="n">
         <v>0.45</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5226,6 +5357,9 @@
       <c r="AG44" t="n">
         <v>0.34</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5333,6 +5467,9 @@
       <c r="AG45" t="n">
         <v>0.4</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5440,6 +5577,9 @@
       <c r="AG46" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5547,6 +5687,9 @@
       <c r="AG47" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5654,6 +5797,9 @@
       <c r="AG48" t="n">
         <v>0.52</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5761,6 +5907,9 @@
       <c r="AG49" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5868,6 +6017,9 @@
       <c r="AG50" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5975,6 +6127,9 @@
       <c r="AG51" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6082,6 +6237,9 @@
       <c r="AG52" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6189,6 +6347,9 @@
       <c r="AG53" t="n">
         <v>0.34</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6296,6 +6457,9 @@
       <c r="AG54" t="n">
         <v>0.4</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6403,6 +6567,9 @@
       <c r="AG55" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6510,6 +6677,9 @@
       <c r="AG56" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6617,6 +6787,9 @@
       <c r="AG57" t="n">
         <v>0.43</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6724,6 +6897,9 @@
       <c r="AG58" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6831,6 +7007,9 @@
       <c r="AG59" t="n">
         <v>0.33</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6938,6 +7117,9 @@
       <c r="AG60" t="n">
         <v>0.43</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7045,6 +7227,9 @@
       <c r="AG61" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7152,6 +7337,9 @@
       <c r="AG62" t="n">
         <v>0.34</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7259,6 +7447,9 @@
       <c r="AG63" t="n">
         <v>0.45</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7366,6 +7557,9 @@
       <c r="AG64" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH64" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7473,6 +7667,9 @@
       <c r="AG65" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH65" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7580,6 +7777,9 @@
       <c r="AG66" t="n">
         <v>0.37</v>
       </c>
+      <c r="AH66" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7687,6 +7887,9 @@
       <c r="AG67" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH67" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7794,6 +7997,9 @@
       <c r="AG68" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH68" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7901,6 +8107,9 @@
       <c r="AG69" t="n">
         <v>0.52</v>
       </c>
+      <c r="AH69" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8008,6 +8217,9 @@
       <c r="AG70" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH70" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8115,6 +8327,9 @@
       <c r="AG71" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH71" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8222,6 +8437,9 @@
       <c r="AG72" t="n">
         <v>0.45</v>
       </c>
+      <c r="AH72" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8329,6 +8547,9 @@
       <c r="AG73" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH73" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8436,6 +8657,9 @@
       <c r="AG74" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH74" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8543,6 +8767,9 @@
       <c r="AG75" t="n">
         <v>0.39</v>
       </c>
+      <c r="AH75" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8650,11 +8877,14 @@
       <c r="AG76" t="n">
         <v>0.46</v>
       </c>
+      <c r="AH76" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8838,6 +9068,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8940,6 +9175,9 @@
       <c r="AF2" t="n">
         <v>1782</v>
       </c>
+      <c r="AG2" t="n">
+        <v>1898</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9042,6 +9280,9 @@
       <c r="AF3" t="n">
         <v>430</v>
       </c>
+      <c r="AG3" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9144,6 +9385,9 @@
       <c r="AF4" t="n">
         <v>648</v>
       </c>
+      <c r="AG4" t="n">
+        <v>706</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9246,6 +9490,9 @@
       <c r="AF5" t="n">
         <v>704</v>
       </c>
+      <c r="AG5" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9348,6 +9595,9 @@
       <c r="AF6" t="n">
         <v>327</v>
       </c>
+      <c r="AG6" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9450,6 +9700,9 @@
       <c r="AF7" t="n">
         <v>349</v>
       </c>
+      <c r="AG7" t="n">
+        <v>347</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9552,6 +9805,9 @@
       <c r="AF8" t="n">
         <v>1106</v>
       </c>
+      <c r="AG8" t="n">
+        <v>1237</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9654,6 +9910,9 @@
       <c r="AF9" t="n">
         <v>863</v>
       </c>
+      <c r="AG9" t="n">
+        <v>934</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9756,6 +10015,9 @@
       <c r="AF10" t="n">
         <v>919</v>
       </c>
+      <c r="AG10" t="n">
+        <v>964</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9858,6 +10120,9 @@
       <c r="AF11" t="n">
         <v>923</v>
       </c>
+      <c r="AG11" t="n">
+        <v>985</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9960,6 +10225,9 @@
       <c r="AF12" t="n">
         <v>417</v>
       </c>
+      <c r="AG12" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10062,6 +10330,9 @@
       <c r="AF13" t="n">
         <v>208</v>
       </c>
+      <c r="AG13" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10164,6 +10435,9 @@
       <c r="AF14" t="n">
         <v>234</v>
       </c>
+      <c r="AG14" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10266,6 +10540,9 @@
       <c r="AF15" t="n">
         <v>35</v>
       </c>
+      <c r="AG15" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10368,6 +10645,9 @@
       <c r="AF16" t="n">
         <v>143</v>
       </c>
+      <c r="AG16" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10470,6 +10750,9 @@
       <c r="AF17" t="n">
         <v>89</v>
       </c>
+      <c r="AG17" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10572,6 +10855,9 @@
       <c r="AF18" t="n">
         <v>13</v>
       </c>
+      <c r="AG18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10674,6 +10960,9 @@
       <c r="AF19" t="n">
         <v>251</v>
       </c>
+      <c r="AG19" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10776,6 +11065,9 @@
       <c r="AF20" t="n">
         <v>477</v>
       </c>
+      <c r="AG20" t="n">
+        <v>523</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10878,6 +11170,9 @@
       <c r="AF21" t="n">
         <v>225</v>
       </c>
+      <c r="AG21" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10980,6 +11275,9 @@
       <c r="AF22" t="n">
         <v>326</v>
       </c>
+      <c r="AG22" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11082,6 +11380,9 @@
       <c r="AF23" t="n">
         <v>312</v>
       </c>
+      <c r="AG23" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11184,6 +11485,9 @@
       <c r="AF24" t="n">
         <v>206</v>
       </c>
+      <c r="AG24" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11286,6 +11590,9 @@
       <c r="AF25" t="n">
         <v>322</v>
       </c>
+      <c r="AG25" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11388,11 +11695,14 @@
       <c r="AF26" t="n">
         <v>391</v>
       </c>
+      <c r="AG26" t="n">
+        <v>408</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -11426,6 +11736,7 @@
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH77"/>
+  <dimension ref="A1:AI77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,9 @@
       <c r="AH2" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +858,9 @@
       <c r="AH3" t="n">
         <v>0.45</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -960,6 +971,9 @@
       <c r="AH4" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1070,6 +1084,9 @@
       <c r="AH5" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1180,6 +1197,9 @@
       <c r="AH6" t="n">
         <v>0.46</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1310,9 @@
       <c r="AH7" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI7" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1400,6 +1423,9 @@
       <c r="AH8" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI8" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1510,6 +1536,9 @@
       <c r="AH9" t="n">
         <v>0.46</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1620,6 +1649,9 @@
       <c r="AH10" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1730,6 +1762,9 @@
       <c r="AH11" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1840,6 +1875,9 @@
       <c r="AH12" t="n">
         <v>0.42</v>
       </c>
+      <c r="AI12" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1950,6 +1988,9 @@
       <c r="AH13" t="n">
         <v>0.37</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2060,6 +2101,9 @@
       <c r="AH14" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2170,6 +2214,9 @@
       <c r="AH15" t="n">
         <v>0.46</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2280,6 +2327,9 @@
       <c r="AH16" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2390,6 +2440,9 @@
       <c r="AH17" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2500,6 +2553,9 @@
       <c r="AH18" t="n">
         <v>0.42</v>
       </c>
+      <c r="AI18" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2610,6 +2666,9 @@
       <c r="AH19" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2720,6 +2779,9 @@
       <c r="AH20" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2830,6 +2892,9 @@
       <c r="AH21" t="n">
         <v>0.45</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2940,6 +3005,9 @@
       <c r="AH22" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3050,6 +3118,9 @@
       <c r="AH23" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3160,6 +3231,9 @@
       <c r="AH24" t="n">
         <v>0.42</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3270,6 +3344,9 @@
       <c r="AH25" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3380,6 +3457,9 @@
       <c r="AH26" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3490,6 +3570,9 @@
       <c r="AH27" t="n">
         <v>0.48</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3600,6 +3683,9 @@
       <c r="AH28" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3710,6 +3796,9 @@
       <c r="AH29" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3820,6 +3909,9 @@
       <c r="AH30" t="n">
         <v>0.47</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3930,6 +4022,9 @@
       <c r="AH31" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI31" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4040,6 +4135,9 @@
       <c r="AH32" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4150,6 +4248,9 @@
       <c r="AH33" t="n">
         <v>0.41</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4260,6 +4361,9 @@
       <c r="AH34" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI34" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4370,6 +4474,9 @@
       <c r="AH35" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4480,6 +4587,9 @@
       <c r="AH36" t="n">
         <v>0.39</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4590,6 +4700,9 @@
       <c r="AH37" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4700,6 +4813,9 @@
       <c r="AH38" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4810,6 +4926,9 @@
       <c r="AH39" t="n">
         <v>0.47</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4920,6 +5039,9 @@
       <c r="AH40" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5030,6 +5152,9 @@
       <c r="AH41" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5140,6 +5265,9 @@
       <c r="AH42" t="n">
         <v>0.66</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5250,6 +5378,9 @@
       <c r="AH43" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5360,6 +5491,9 @@
       <c r="AH44" t="n">
         <v>0.3</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5470,6 +5604,9 @@
       <c r="AH45" t="n">
         <v>0.45</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5580,6 +5717,9 @@
       <c r="AH46" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI46" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5690,6 +5830,9 @@
       <c r="AH47" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI47" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5800,6 +5943,9 @@
       <c r="AH48" t="n">
         <v>0.46</v>
       </c>
+      <c r="AI48" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5910,6 +6056,9 @@
       <c r="AH49" t="n">
         <v>0.32</v>
       </c>
+      <c r="AI49" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6020,6 +6169,9 @@
       <c r="AH50" t="n">
         <v>0.39</v>
       </c>
+      <c r="AI50" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6130,6 +6282,9 @@
       <c r="AH51" t="n">
         <v>0.54</v>
       </c>
+      <c r="AI51" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6240,6 +6395,9 @@
       <c r="AH52" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI52" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6350,6 +6508,9 @@
       <c r="AH53" t="n">
         <v>0.36</v>
       </c>
+      <c r="AI53" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6460,6 +6621,9 @@
       <c r="AH54" t="n">
         <v>0.37</v>
       </c>
+      <c r="AI54" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6570,6 +6734,9 @@
       <c r="AH55" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI55" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6680,6 +6847,9 @@
       <c r="AH56" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI56" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6790,6 +6960,9 @@
       <c r="AH57" t="n">
         <v>0.46</v>
       </c>
+      <c r="AI57" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6900,6 +7073,9 @@
       <c r="AH58" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI58" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7010,6 +7186,9 @@
       <c r="AH59" t="n">
         <v>0.4</v>
       </c>
+      <c r="AI59" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7120,6 +7299,9 @@
       <c r="AH60" t="n">
         <v>0.44</v>
       </c>
+      <c r="AI60" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7230,6 +7412,9 @@
       <c r="AH61" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7340,6 +7525,9 @@
       <c r="AH62" t="n">
         <v>0.36</v>
       </c>
+      <c r="AI62" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7450,6 +7638,9 @@
       <c r="AH63" t="n">
         <v>0.4</v>
       </c>
+      <c r="AI63" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7560,6 +7751,9 @@
       <c r="AH64" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI64" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7670,6 +7864,9 @@
       <c r="AH65" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI65" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7780,6 +7977,9 @@
       <c r="AH66" t="n">
         <v>0.42</v>
       </c>
+      <c r="AI66" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7890,6 +8090,9 @@
       <c r="AH67" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI67" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8000,6 +8203,9 @@
       <c r="AH68" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI68" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8110,6 +8316,9 @@
       <c r="AH69" t="n">
         <v>0.48</v>
       </c>
+      <c r="AI69" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8220,6 +8429,9 @@
       <c r="AH70" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI70" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8330,6 +8542,9 @@
       <c r="AH71" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI71" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8440,6 +8655,9 @@
       <c r="AH72" t="n">
         <v>0.53</v>
       </c>
+      <c r="AI72" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8550,6 +8768,9 @@
       <c r="AH73" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI73" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8660,6 +8881,9 @@
       <c r="AH74" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI74" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8770,6 +8994,9 @@
       <c r="AH75" t="n">
         <v>0.43</v>
       </c>
+      <c r="AI75" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8880,11 +9107,14 @@
       <c r="AH76" t="n">
         <v>0.41</v>
       </c>
+      <c r="AI76" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -8899,7 +9129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9073,6 +9303,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9178,6 +9413,9 @@
       <c r="AG2" t="n">
         <v>1898</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1855</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9283,6 +9521,9 @@
       <c r="AG3" t="n">
         <v>452</v>
       </c>
+      <c r="AH3" t="n">
+        <v>456</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9388,6 +9629,9 @@
       <c r="AG4" t="n">
         <v>706</v>
       </c>
+      <c r="AH4" t="n">
+        <v>678</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9493,6 +9737,9 @@
       <c r="AG5" t="n">
         <v>740</v>
       </c>
+      <c r="AH5" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9598,6 +9845,9 @@
       <c r="AG6" t="n">
         <v>314</v>
       </c>
+      <c r="AH6" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9703,6 +9953,9 @@
       <c r="AG7" t="n">
         <v>347</v>
       </c>
+      <c r="AH7" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9808,6 +10061,9 @@
       <c r="AG8" t="n">
         <v>1237</v>
       </c>
+      <c r="AH8" t="n">
+        <v>1213</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9913,6 +10169,9 @@
       <c r="AG9" t="n">
         <v>934</v>
       </c>
+      <c r="AH9" t="n">
+        <v>897</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10018,6 +10277,9 @@
       <c r="AG10" t="n">
         <v>964</v>
       </c>
+      <c r="AH10" t="n">
+        <v>958</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10123,6 +10385,9 @@
       <c r="AG11" t="n">
         <v>985</v>
       </c>
+      <c r="AH11" t="n">
+        <v>965</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10228,6 +10493,9 @@
       <c r="AG12" t="n">
         <v>442</v>
       </c>
+      <c r="AH12" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10333,6 +10601,9 @@
       <c r="AG13" t="n">
         <v>220</v>
       </c>
+      <c r="AH13" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10438,6 +10709,9 @@
       <c r="AG14" t="n">
         <v>251</v>
       </c>
+      <c r="AH14" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10543,6 +10817,9 @@
       <c r="AG15" t="n">
         <v>41</v>
       </c>
+      <c r="AH15" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10648,6 +10925,9 @@
       <c r="AG16" t="n">
         <v>150</v>
       </c>
+      <c r="AH16" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10753,6 +11033,9 @@
       <c r="AG17" t="n">
         <v>90</v>
       </c>
+      <c r="AH17" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10858,6 +11141,9 @@
       <c r="AG18" t="n">
         <v>17</v>
       </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10963,6 +11249,9 @@
       <c r="AG19" t="n">
         <v>261</v>
       </c>
+      <c r="AH19" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11068,6 +11357,9 @@
       <c r="AG20" t="n">
         <v>523</v>
       </c>
+      <c r="AH20" t="n">
+        <v>497</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11173,6 +11465,9 @@
       <c r="AG21" t="n">
         <v>235</v>
       </c>
+      <c r="AH21" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11278,6 +11573,9 @@
       <c r="AG22" t="n">
         <v>367</v>
       </c>
+      <c r="AH22" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11383,6 +11681,9 @@
       <c r="AG23" t="n">
         <v>332</v>
       </c>
+      <c r="AH23" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11488,6 +11789,9 @@
       <c r="AG24" t="n">
         <v>217</v>
       </c>
+      <c r="AH24" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11593,6 +11897,9 @@
       <c r="AG25" t="n">
         <v>339</v>
       </c>
+      <c r="AH25" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11698,11 +12005,14 @@
       <c r="AG26" t="n">
         <v>408</v>
       </c>
+      <c r="AH26" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -11737,6 +12047,7 @@
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI77"/>
+  <dimension ref="A1:AJ77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -748,6 +753,9 @@
       <c r="AI2" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +869,9 @@
       <c r="AI3" t="n">
         <v>0.43</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -974,6 +985,9 @@
       <c r="AI4" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1087,6 +1101,9 @@
       <c r="AI5" t="n">
         <v>0.38</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1200,6 +1217,9 @@
       <c r="AI6" t="n">
         <v>0.44</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1313,6 +1333,9 @@
       <c r="AI7" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1426,6 +1449,9 @@
       <c r="AI8" t="n">
         <v>0.3</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1539,6 +1565,9 @@
       <c r="AI9" t="n">
         <v>0.46</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1652,6 +1681,9 @@
       <c r="AI10" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1765,6 +1797,9 @@
       <c r="AI11" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1878,6 +1913,9 @@
       <c r="AI12" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1991,6 +2029,9 @@
       <c r="AI13" t="n">
         <v>0.37</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2104,6 +2145,9 @@
       <c r="AI14" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2217,6 +2261,9 @@
       <c r="AI15" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2330,6 +2377,9 @@
       <c r="AI16" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2443,6 +2493,9 @@
       <c r="AI17" t="n">
         <v>0.27</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2556,6 +2609,9 @@
       <c r="AI18" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2669,6 +2725,9 @@
       <c r="AI19" t="n">
         <v>0.33</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2782,6 +2841,9 @@
       <c r="AI20" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2895,6 +2957,9 @@
       <c r="AI21" t="n">
         <v>0.45</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3008,6 +3073,9 @@
       <c r="AI22" t="n">
         <v>0.26</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3121,6 +3189,9 @@
       <c r="AI23" t="n">
         <v>0.36</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3234,6 +3305,9 @@
       <c r="AI24" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3347,6 +3421,9 @@
       <c r="AI25" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3460,6 +3537,9 @@
       <c r="AI26" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3573,6 +3653,9 @@
       <c r="AI27" t="n">
         <v>0.45</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3686,6 +3769,9 @@
       <c r="AI28" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3799,6 +3885,9 @@
       <c r="AI29" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3912,6 +4001,9 @@
       <c r="AI30" t="n">
         <v>0.43</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4025,6 +4117,9 @@
       <c r="AI31" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4138,6 +4233,9 @@
       <c r="AI32" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4251,6 +4349,9 @@
       <c r="AI33" t="n">
         <v>0.44</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4364,6 +4465,9 @@
       <c r="AI34" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4477,6 +4581,9 @@
       <c r="AI35" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4590,6 +4697,9 @@
       <c r="AI36" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4703,6 +4813,9 @@
       <c r="AI37" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4816,6 +4929,9 @@
       <c r="AI38" t="n">
         <v>0.27</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4929,6 +5045,9 @@
       <c r="AI39" t="n">
         <v>0.45</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5042,6 +5161,9 @@
       <c r="AI40" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5155,6 +5277,9 @@
       <c r="AI41" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5268,6 +5393,9 @@
       <c r="AI42" t="n">
         <v>0.44</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5381,6 +5509,9 @@
       <c r="AI43" t="n">
         <v>0.45</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5494,6 +5625,9 @@
       <c r="AI44" t="n">
         <v>0.35</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5607,6 +5741,9 @@
       <c r="AI45" t="n">
         <v>0.33</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5720,6 +5857,9 @@
       <c r="AI46" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5833,6 +5973,9 @@
       <c r="AI47" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5946,6 +6089,9 @@
       <c r="AI48" t="n">
         <v>0.46</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6059,6 +6205,9 @@
       <c r="AI49" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6172,6 +6321,9 @@
       <c r="AI50" t="n">
         <v>0.3</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6285,6 +6437,9 @@
       <c r="AI51" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6398,6 +6553,9 @@
       <c r="AI52" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6511,6 +6669,9 @@
       <c r="AI53" t="n">
         <v>0.37</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6624,6 +6785,9 @@
       <c r="AI54" t="n">
         <v>0.44</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6737,6 +6901,9 @@
       <c r="AI55" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6850,6 +7017,9 @@
       <c r="AI56" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6963,6 +7133,9 @@
       <c r="AI57" t="n">
         <v>0.47</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7076,6 +7249,9 @@
       <c r="AI58" t="n">
         <v>0.21</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7189,6 +7365,9 @@
       <c r="AI59" t="n">
         <v>0.44</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7302,6 +7481,9 @@
       <c r="AI60" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7415,6 +7597,9 @@
       <c r="AI61" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7528,6 +7713,9 @@
       <c r="AI62" t="n">
         <v>0.39</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7641,6 +7829,9 @@
       <c r="AI63" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7754,6 +7945,9 @@
       <c r="AI64" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7867,6 +8061,9 @@
       <c r="AI65" t="n">
         <v>0.27</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7980,6 +8177,9 @@
       <c r="AI66" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8093,6 +8293,9 @@
       <c r="AI67" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ67" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8206,6 +8409,9 @@
       <c r="AI68" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ68" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8319,6 +8525,9 @@
       <c r="AI69" t="n">
         <v>0.47</v>
       </c>
+      <c r="AJ69" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8432,6 +8641,9 @@
       <c r="AI70" t="n">
         <v>0.21</v>
       </c>
+      <c r="AJ70" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8545,6 +8757,9 @@
       <c r="AI71" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ71" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8658,6 +8873,9 @@
       <c r="AI72" t="n">
         <v>0.51</v>
       </c>
+      <c r="AJ72" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8771,6 +8989,9 @@
       <c r="AI73" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ73" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8884,6 +9105,9 @@
       <c r="AI74" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ74" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8997,6 +9221,9 @@
       <c r="AI75" t="n">
         <v>0.39</v>
       </c>
+      <c r="AJ75" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9110,11 +9337,14 @@
       <c r="AI76" t="n">
         <v>0.42</v>
       </c>
+      <c r="AJ76" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9308,6 +9538,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9416,6 +9651,9 @@
       <c r="AH2" t="n">
         <v>1855</v>
       </c>
+      <c r="AI2" t="n">
+        <v>1836</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9524,6 +9762,9 @@
       <c r="AH3" t="n">
         <v>456</v>
       </c>
+      <c r="AI3" t="n">
+        <v>454</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9632,6 +9873,9 @@
       <c r="AH4" t="n">
         <v>678</v>
       </c>
+      <c r="AI4" t="n">
+        <v>670</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9740,6 +9984,9 @@
       <c r="AH5" t="n">
         <v>721</v>
       </c>
+      <c r="AI5" t="n">
+        <v>712</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9848,6 +10095,9 @@
       <c r="AH6" t="n">
         <v>317</v>
       </c>
+      <c r="AI6" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9956,6 +10206,9 @@
       <c r="AH7" t="n">
         <v>325</v>
       </c>
+      <c r="AI7" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10064,6 +10317,9 @@
       <c r="AH8" t="n">
         <v>1213</v>
       </c>
+      <c r="AI8" t="n">
+        <v>1224</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10172,6 +10428,9 @@
       <c r="AH9" t="n">
         <v>897</v>
       </c>
+      <c r="AI9" t="n">
+        <v>895</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10280,6 +10539,9 @@
       <c r="AH10" t="n">
         <v>958</v>
       </c>
+      <c r="AI10" t="n">
+        <v>941</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10388,6 +10650,9 @@
       <c r="AH11" t="n">
         <v>965</v>
       </c>
+      <c r="AI11" t="n">
+        <v>960</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10496,6 +10761,9 @@
       <c r="AH12" t="n">
         <v>429</v>
       </c>
+      <c r="AI12" t="n">
+        <v>418</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10604,6 +10872,9 @@
       <c r="AH13" t="n">
         <v>216</v>
       </c>
+      <c r="AI13" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10712,6 +10983,9 @@
       <c r="AH14" t="n">
         <v>245</v>
       </c>
+      <c r="AI14" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10820,6 +11094,9 @@
       <c r="AH15" t="n">
         <v>39</v>
       </c>
+      <c r="AI15" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10928,6 +11205,9 @@
       <c r="AH16" t="n">
         <v>145</v>
       </c>
+      <c r="AI16" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11036,6 +11316,9 @@
       <c r="AH17" t="n">
         <v>101</v>
       </c>
+      <c r="AI17" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11144,6 +11427,9 @@
       <c r="AH18" t="n">
         <v>21</v>
       </c>
+      <c r="AI18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11252,6 +11538,9 @@
       <c r="AH19" t="n">
         <v>250</v>
       </c>
+      <c r="AI19" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11360,6 +11649,9 @@
       <c r="AH20" t="n">
         <v>497</v>
       </c>
+      <c r="AI20" t="n">
+        <v>492</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11468,6 +11760,9 @@
       <c r="AH21" t="n">
         <v>237</v>
       </c>
+      <c r="AI21" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11576,6 +11871,9 @@
       <c r="AH22" t="n">
         <v>343</v>
       </c>
+      <c r="AI22" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11684,6 +11982,9 @@
       <c r="AH23" t="n">
         <v>317</v>
       </c>
+      <c r="AI23" t="n">
+        <v>319</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11792,6 +12093,9 @@
       <c r="AH24" t="n">
         <v>219</v>
       </c>
+      <c r="AI24" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11900,6 +12204,9 @@
       <c r="AH25" t="n">
         <v>336</v>
       </c>
+      <c r="AI25" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12008,11 +12315,14 @@
       <c r="AH26" t="n">
         <v>403</v>
       </c>
+      <c r="AI26" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -12048,6 +12358,7 @@
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM95"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -780,6 +785,9 @@
       <c r="AM2" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN2" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -905,6 +913,9 @@
       <c r="AM3" t="n">
         <v>0.41</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1030,6 +1041,9 @@
       <c r="AM4" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1155,6 +1169,9 @@
       <c r="AM5" t="n">
         <v>0.32</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1280,6 +1297,9 @@
       <c r="AM6" t="n">
         <v>0.39</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1405,6 +1425,9 @@
       <c r="AM7" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN7" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1470,6 +1493,9 @@
       <c r="AM8" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1535,6 +1561,9 @@
       <c r="AM9" t="n">
         <v>0.41</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1600,6 +1629,9 @@
       <c r="AM10" t="n">
         <v>0.38</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1725,6 +1757,9 @@
       <c r="AM11" t="n">
         <v>0.34</v>
       </c>
+      <c r="AN11" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1850,6 +1885,9 @@
       <c r="AM12" t="n">
         <v>0.4</v>
       </c>
+      <c r="AN12" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1975,6 +2013,9 @@
       <c r="AM13" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN13" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2040,6 +2081,9 @@
       <c r="AM14" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2105,6 +2149,9 @@
       <c r="AM15" t="n">
         <v>0.45</v>
       </c>
+      <c r="AN15" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2170,6 +2217,9 @@
       <c r="AM16" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2295,6 +2345,9 @@
       <c r="AM17" t="n">
         <v>0.27</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2420,6 +2473,9 @@
       <c r="AM18" t="n">
         <v>0.39</v>
       </c>
+      <c r="AN18" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2545,6 +2601,9 @@
       <c r="AM19" t="n">
         <v>0.34</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2610,6 +2669,9 @@
       <c r="AM20" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2675,6 +2737,9 @@
       <c r="AM21" t="n">
         <v>0.37</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2740,6 +2805,9 @@
       <c r="AM22" t="n">
         <v>0.46</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2865,6 +2933,9 @@
       <c r="AM23" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN23" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2990,6 +3061,9 @@
       <c r="AM24" t="n">
         <v>0.45</v>
       </c>
+      <c r="AN24" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3115,6 +3189,9 @@
       <c r="AM25" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3240,6 +3317,9 @@
       <c r="AM26" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3365,6 +3445,9 @@
       <c r="AM27" t="n">
         <v>0.43</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3490,6 +3573,9 @@
       <c r="AM28" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3615,6 +3701,9 @@
       <c r="AM29" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN29" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3740,6 +3829,9 @@
       <c r="AM30" t="n">
         <v>0.37</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3865,6 +3957,9 @@
       <c r="AM31" t="n">
         <v>0.44</v>
       </c>
+      <c r="AN31" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3990,6 +4085,9 @@
       <c r="AM32" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4115,6 +4213,9 @@
       <c r="AM33" t="n">
         <v>0.4</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4240,6 +4341,9 @@
       <c r="AM34" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN34" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4365,6 +4469,9 @@
       <c r="AM35" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4490,6 +4597,9 @@
       <c r="AM36" t="n">
         <v>0.42</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4615,6 +4725,9 @@
       <c r="AM37" t="n">
         <v>0.42</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4740,6 +4853,9 @@
       <c r="AM38" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4865,6 +4981,9 @@
       <c r="AM39" t="n">
         <v>0.41</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4990,6 +5109,9 @@
       <c r="AM40" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5115,6 +5237,9 @@
       <c r="AM41" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5240,6 +5365,9 @@
       <c r="AM42" t="n">
         <v>0.39</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5365,6 +5493,9 @@
       <c r="AM43" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5490,6 +5621,9 @@
       <c r="AM44" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5615,6 +5749,9 @@
       <c r="AM45" t="n">
         <v>0.43</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5740,6 +5877,9 @@
       <c r="AM46" t="n">
         <v>0.4</v>
       </c>
+      <c r="AN46" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5865,6 +6005,9 @@
       <c r="AM47" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN47" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5990,6 +6133,9 @@
       <c r="AM48" t="n">
         <v>0.41</v>
       </c>
+      <c r="AN48" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6115,6 +6261,9 @@
       <c r="AM49" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN49" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6240,6 +6389,9 @@
       <c r="AM50" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN50" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6365,6 +6517,9 @@
       <c r="AM51" t="n">
         <v>0.42</v>
       </c>
+      <c r="AN51" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6490,6 +6645,9 @@
       <c r="AM52" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN52" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6615,6 +6773,9 @@
       <c r="AM53" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN53" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6740,6 +6901,9 @@
       <c r="AM54" t="n">
         <v>0.4</v>
       </c>
+      <c r="AN54" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6865,6 +7029,9 @@
       <c r="AM55" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN55" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6990,6 +7157,9 @@
       <c r="AM56" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN56" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7115,6 +7285,9 @@
       <c r="AM57" t="n">
         <v>0.4</v>
       </c>
+      <c r="AN57" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7240,6 +7413,9 @@
       <c r="AM58" t="n">
         <v>0.37</v>
       </c>
+      <c r="AN58" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7365,6 +7541,9 @@
       <c r="AM59" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN59" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7490,6 +7669,9 @@
       <c r="AM60" t="n">
         <v>0.43</v>
       </c>
+      <c r="AN60" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7615,6 +7797,9 @@
       <c r="AM61" t="n">
         <v>0.51</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7740,6 +7925,9 @@
       <c r="AM62" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN62" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7865,6 +8053,9 @@
       <c r="AM63" t="n">
         <v>0.45</v>
       </c>
+      <c r="AN63" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7990,6 +8181,9 @@
       <c r="AM64" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN64" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8115,6 +8309,9 @@
       <c r="AM65" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN65" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8240,6 +8437,9 @@
       <c r="AM66" t="n">
         <v>0.43</v>
       </c>
+      <c r="AN66" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8365,6 +8565,9 @@
       <c r="AM67" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN67" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8490,6 +8693,9 @@
       <c r="AM68" t="n">
         <v>0.32</v>
       </c>
+      <c r="AN68" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8615,6 +8821,9 @@
       <c r="AM69" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN69" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8740,6 +8949,9 @@
       <c r="AM70" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN70" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8865,6 +9077,9 @@
       <c r="AM71" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN71" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8990,6 +9205,9 @@
       <c r="AM72" t="n">
         <v>0.48</v>
       </c>
+      <c r="AN72" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9115,6 +9333,9 @@
       <c r="AM73" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN73" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9240,6 +9461,9 @@
       <c r="AM74" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN74" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9365,6 +9589,9 @@
       <c r="AM75" t="n">
         <v>0.43</v>
       </c>
+      <c r="AN75" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9490,6 +9717,9 @@
       <c r="AM76" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN76" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9615,6 +9845,9 @@
       <c r="AM77" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN77" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9740,6 +9973,9 @@
       <c r="AM78" t="n">
         <v>0.42</v>
       </c>
+      <c r="AN78" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9865,6 +10101,9 @@
       <c r="AM79" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN79" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9990,6 +10229,9 @@
       <c r="AM80" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN80" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10115,6 +10357,9 @@
       <c r="AM81" t="n">
         <v>0.38</v>
       </c>
+      <c r="AN81" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10240,6 +10485,9 @@
       <c r="AM82" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN82" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10365,6 +10613,9 @@
       <c r="AM83" t="n">
         <v>0.27</v>
       </c>
+      <c r="AN83" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10490,6 +10741,9 @@
       <c r="AM84" t="n">
         <v>0.36</v>
       </c>
+      <c r="AN84" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10615,6 +10869,9 @@
       <c r="AM85" t="n">
         <v>0.37</v>
       </c>
+      <c r="AN85" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10740,6 +10997,9 @@
       <c r="AM86" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN86" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10865,6 +11125,9 @@
       <c r="AM87" t="n">
         <v>0.48</v>
       </c>
+      <c r="AN87" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10990,6 +11253,9 @@
       <c r="AM88" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN88" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11115,6 +11381,9 @@
       <c r="AM89" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN89" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11240,6 +11509,9 @@
       <c r="AM90" t="n">
         <v>0.48</v>
       </c>
+      <c r="AN90" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11365,6 +11637,9 @@
       <c r="AM91" t="n">
         <v>0.37</v>
       </c>
+      <c r="AN91" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11490,6 +11765,9 @@
       <c r="AM92" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN92" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11615,6 +11893,9 @@
       <c r="AM93" t="n">
         <v>0.37</v>
       </c>
+      <c r="AN93" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11740,11 +12021,14 @@
       <c r="AM94" t="n">
         <v>0.5</v>
       </c>
+      <c r="AN94" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -11759,7 +12043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL33"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11958,6 +12242,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12078,6 +12367,9 @@
       <c r="AL2" t="n">
         <v>1767</v>
       </c>
+      <c r="AM2" t="n">
+        <v>1815</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12197,6 +12489,9 @@
       </c>
       <c r="AL3" t="n">
         <v>406</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>412</v>
       </c>
     </row>
     <row r="4">
@@ -12278,6 +12573,9 @@
       <c r="AL4" t="n">
         <v>1361</v>
       </c>
+      <c r="AM4" t="n">
+        <v>1403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12397,6 +12695,9 @@
       </c>
       <c r="AL5" t="n">
         <v>298</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="6">
@@ -12478,6 +12779,9 @@
       <c r="AL6" t="n">
         <v>774</v>
       </c>
+      <c r="AM6" t="n">
+        <v>797</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12597,6 +12901,9 @@
       </c>
       <c r="AL7" t="n">
         <v>108</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -12678,6 +12985,9 @@
       <c r="AL8" t="n">
         <v>587</v>
       </c>
+      <c r="AM8" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12798,6 +13108,9 @@
       <c r="AL9" t="n">
         <v>442</v>
       </c>
+      <c r="AM9" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12918,6 +13231,9 @@
       <c r="AL10" t="n">
         <v>647</v>
       </c>
+      <c r="AM10" t="n">
+        <v>676</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -13038,6 +13354,9 @@
       <c r="AL11" t="n">
         <v>678</v>
       </c>
+      <c r="AM11" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -13158,6 +13477,9 @@
       <c r="AL12" t="n">
         <v>579</v>
       </c>
+      <c r="AM12" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -13278,6 +13600,9 @@
       <c r="AL13" t="n">
         <v>447</v>
       </c>
+      <c r="AM13" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -13398,6 +13723,9 @@
       <c r="AL14" t="n">
         <v>741</v>
       </c>
+      <c r="AM14" t="n">
+        <v>649</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13518,6 +13846,9 @@
       <c r="AL15" t="n">
         <v>862</v>
       </c>
+      <c r="AM15" t="n">
+        <v>880</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13638,6 +13969,9 @@
       <c r="AL16" t="n">
         <v>905</v>
       </c>
+      <c r="AM16" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13758,6 +14092,9 @@
       <c r="AL17" t="n">
         <v>916</v>
       </c>
+      <c r="AM17" t="n">
+        <v>952</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13878,6 +14215,9 @@
       <c r="AL18" t="n">
         <v>413</v>
       </c>
+      <c r="AM18" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13998,6 +14338,9 @@
       <c r="AL19" t="n">
         <v>205</v>
       </c>
+      <c r="AM19" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14118,6 +14461,9 @@
       <c r="AL20" t="n">
         <v>233</v>
       </c>
+      <c r="AM20" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14238,6 +14584,9 @@
       <c r="AL21" t="n">
         <v>43</v>
       </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14358,6 +14707,9 @@
       <c r="AL22" t="n">
         <v>144</v>
       </c>
+      <c r="AM22" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14478,6 +14830,9 @@
       <c r="AL23" t="n">
         <v>85</v>
       </c>
+      <c r="AM23" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14598,6 +14953,9 @@
       <c r="AL24" t="n">
         <v>13</v>
       </c>
+      <c r="AM24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14718,6 +15076,9 @@
       <c r="AL25" t="n">
         <v>240</v>
       </c>
+      <c r="AM25" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14838,6 +15199,9 @@
       <c r="AL26" t="n">
         <v>483</v>
       </c>
+      <c r="AM26" t="n">
+        <v>486</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -14958,6 +15322,9 @@
       <c r="AL27" t="n">
         <v>228</v>
       </c>
+      <c r="AM27" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -15078,6 +15445,9 @@
       <c r="AL28" t="n">
         <v>331</v>
       </c>
+      <c r="AM28" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -15198,6 +15568,9 @@
       <c r="AL29" t="n">
         <v>304</v>
       </c>
+      <c r="AM29" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -15318,6 +15691,9 @@
       <c r="AL30" t="n">
         <v>215</v>
       </c>
+      <c r="AM30" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -15438,6 +15814,9 @@
       <c r="AL31" t="n">
         <v>316</v>
       </c>
+      <c r="AM31" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -15558,11 +15937,14 @@
       <c r="AL32" t="n">
         <v>373</v>
       </c>
+      <c r="AM32" t="n">
+        <v>385</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -15602,6 +15984,7 @@
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_11_obavy_epidemie.xlsx
+++ b/ZBP_11_obavy_epidemie.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AO95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -788,6 +793,9 @@
       <c r="AN2" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO2" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -916,6 +924,9 @@
       <c r="AN3" t="n">
         <v>0.42</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1044,6 +1055,9 @@
       <c r="AN4" t="n">
         <v>0.31</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1170,7 +1184,10 @@
         <v>0.32</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="6">
@@ -1300,6 +1317,9 @@
       <c r="AN6" t="n">
         <v>0.42</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1426,7 +1446,10 @@
         <v>0.29</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="8">
@@ -1496,6 +1519,9 @@
       <c r="AN8" t="n">
         <v>0.25</v>
       </c>
+      <c r="AO8" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1564,6 +1590,9 @@
       <c r="AN9" t="n">
         <v>0.42</v>
       </c>
+      <c r="AO9" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1632,6 +1661,9 @@
       <c r="AN10" t="n">
         <v>0.33</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1760,6 +1792,9 @@
       <c r="AN11" t="n">
         <v>0.36</v>
       </c>
+      <c r="AO11" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1886,7 +1921,10 @@
         <v>0.4</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="13">
@@ -2014,7 +2052,10 @@
         <v>0.26</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="14">
@@ -2084,6 +2125,9 @@
       <c r="AN14" t="n">
         <v>0.3</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2152,6 +2196,9 @@
       <c r="AN15" t="n">
         <v>0.45</v>
       </c>
+      <c r="AO15" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2220,6 +2267,9 @@
       <c r="AN16" t="n">
         <v>0.25</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2348,6 +2398,9 @@
       <c r="AN17" t="n">
         <v>0.33</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2474,7 +2527,10 @@
         <v>0.39</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="19">
@@ -2602,7 +2658,10 @@
         <v>0.34</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="20">
@@ -2672,6 +2731,9 @@
       <c r="AN20" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2740,6 +2802,9 @@
       <c r="AN21" t="n">
         <v>0.37</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2808,6 +2873,9 @@
       <c r="AN22" t="n">
         <v>0.45</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2936,6 +3004,9 @@
       <c r="AN23" t="n">
         <v>0.37</v>
       </c>
+      <c r="AO23" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3064,6 +3135,9 @@
       <c r="AN24" t="n">
         <v>0.42</v>
       </c>
+      <c r="AO24" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3192,6 +3266,9 @@
       <c r="AN25" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3320,6 +3397,9 @@
       <c r="AN26" t="n">
         <v>0.28</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3448,6 +3528,9 @@
       <c r="AN27" t="n">
         <v>0.47</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3576,6 +3659,9 @@
       <c r="AN28" t="n">
         <v>0.25</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3704,6 +3790,9 @@
       <c r="AN29" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO29" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3832,6 +3921,9 @@
       <c r="AN30" t="n">
         <v>0.37</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3960,6 +4052,9 @@
       <c r="AN31" t="n">
         <v>0.43</v>
       </c>
+      <c r="AO31" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4086,6 +4181,9 @@
         <v>0.3</v>
       </c>
       <c r="AN32" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AO32" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -4214,7 +4312,10 @@
         <v>0.4</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="34">
@@ -4344,6 +4445,9 @@
       <c r="AN34" t="n">
         <v>0.26</v>
       </c>
+      <c r="AO34" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4470,7 +4574,10 @@
         <v>0.16</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="36">
@@ -4600,6 +4707,9 @@
       <c r="AN36" t="n">
         <v>0.4</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4726,7 +4836,10 @@
         <v>0.42</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="38">
@@ -4856,6 +4969,9 @@
       <c r="AN38" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4984,6 +5100,9 @@
       <c r="AN39" t="n">
         <v>0.44</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5112,6 +5231,9 @@
       <c r="AN40" t="n">
         <v>0.29</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5238,7 +5360,10 @@
         <v>0.31</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="42">
@@ -5368,6 +5493,9 @@
       <c r="AN42" t="n">
         <v>0.39</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5494,7 +5622,10 @@
         <v>0.3</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="44">
@@ -5624,6 +5755,9 @@
       <c r="AN44" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5752,6 +5886,9 @@
       <c r="AN45" t="n">
         <v>0.45</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5880,6 +6017,9 @@
       <c r="AN46" t="n">
         <v>0.35</v>
       </c>
+      <c r="AO46" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6008,6 +6148,9 @@
       <c r="AN47" t="n">
         <v>0.25</v>
       </c>
+      <c r="AO47" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6136,6 +6279,9 @@
       <c r="AN48" t="n">
         <v>0.44</v>
       </c>
+      <c r="AO48" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6264,6 +6410,9 @@
       <c r="AN49" t="n">
         <v>0.31</v>
       </c>
+      <c r="AO49" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6392,6 +6541,9 @@
       <c r="AN50" t="n">
         <v>0.32</v>
       </c>
+      <c r="AO50" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6518,7 +6670,10 @@
         <v>0.42</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="52">
@@ -6646,7 +6801,10 @@
         <v>0.35</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="53">
@@ -6776,6 +6934,9 @@
       <c r="AN53" t="n">
         <v>0.29</v>
       </c>
+      <c r="AO53" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6904,6 +7065,9 @@
       <c r="AN54" t="n">
         <v>0.37</v>
       </c>
+      <c r="AO54" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7032,6 +7196,9 @@
       <c r="AN55" t="n">
         <v>0.34</v>
       </c>
+      <c r="AO55" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7158,7 +7325,10 @@
         <v>0.23</v>
       </c>
       <c r="AN56" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="57">
@@ -7286,7 +7456,10 @@
         <v>0.4</v>
       </c>
       <c r="AN57" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="58">
@@ -7414,7 +7587,10 @@
         <v>0.37</v>
       </c>
       <c r="AN58" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="59">
@@ -7542,7 +7718,10 @@
         <v>0.06</v>
       </c>
       <c r="AN59" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="60">
@@ -7670,7 +7849,10 @@
         <v>0.43</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="61">
@@ -7798,7 +7980,10 @@
         <v>0.51</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="62">
@@ -7926,7 +8111,10 @@
         <v>0.25</v>
       </c>
       <c r="AN62" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="63">
@@ -8056,6 +8244,9 @@
       <c r="AN63" t="n">
         <v>0.4</v>
       </c>
+      <c r="AO63" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8182,7 +8373,10 @@
         <v>0.3</v>
       </c>
       <c r="AN64" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="65">
@@ -8310,7 +8504,10 @@
         <v>0.22</v>
       </c>
       <c r="AN65" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="66">
@@ -8438,7 +8635,10 @@
         <v>0.43</v>
       </c>
       <c r="AN66" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="67">
@@ -8566,7 +8766,10 @@
         <v>0.35</v>
       </c>
       <c r="AN67" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="68">
@@ -8696,6 +8899,9 @@
       <c r="AN68" t="n">
         <v>0.53</v>
       </c>
+      <c r="AO68" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8822,7 +9028,10 @@
         <v>0.35</v>
       </c>
       <c r="AN69" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="70">
@@ -8950,7 +9159,10 @@
         <v>0.33</v>
       </c>
       <c r="AN70" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="71">
@@ -9080,6 +9292,9 @@
       <c r="AN71" t="n">
         <v>0.37</v>
       </c>
+      <c r="AO71" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9208,6 +9423,9 @@
       <c r="AN72" t="n">
         <v>0.41</v>
       </c>
+      <c r="AO72" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9336,6 +9554,9 @@
       <c r="AN73" t="n">
         <v>0.22</v>
       </c>
+      <c r="AO73" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9464,6 +9685,9 @@
       <c r="AN74" t="n">
         <v>0.29</v>
       </c>
+      <c r="AO74" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9590,6 +9814,9 @@
         <v>0.43</v>
       </c>
       <c r="AN75" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AO75" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -9718,7 +9945,10 @@
         <v>0.29</v>
       </c>
       <c r="AN76" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="77">
@@ -9846,7 +10076,10 @@
         <v>0.35</v>
       </c>
       <c r="AN77" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="78">
@@ -9974,7 +10207,10 @@
         <v>0.42</v>
       </c>
       <c r="AN78" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="79">
@@ -10104,6 +10340,9 @@
       <c r="AN79" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO79" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10230,7 +10469,10 @@
         <v>0.33</v>
       </c>
       <c r="AN80" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="81">
@@ -10360,6 +10602,9 @@
       <c r="AN81" t="n">
         <v>0.45</v>
       </c>
+      <c r="AO81" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10486,7 +10731,10 @@
         <v>0.29</v>
       </c>
       <c r="AN82" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="83">
@@ -10616,6 +10864,9 @@
       <c r="AN83" t="n">
         <v>0.26</v>
       </c>
+      <c r="AO83" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10742,6 +10993,9 @@
         <v>0.36</v>
       </c>
       <c r="AN84" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AO84" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -10870,7 +11124,10 @@
         <v>0.37</v>
       </c>
       <c r="AN85" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="86">
@@ -10998,7 +11255,10 @@
         <v>0.26</v>
       </c>
       <c r="AN86" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="87">
@@ -11126,7 +11386,10 @@
         <v>0.48</v>
       </c>
       <c r="AN87" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="88">
@@ -11254,7 +11517,10 @@
         <v>0.26</v>
       </c>
       <c r="AN88" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="89">
@@ -11382,7 +11648,10 @@
         <v>0.15</v>
       </c>
       <c r="AN89" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="90">
@@ -11510,7 +11779,10 @@
         <v>0.48</v>
       </c>
       <c r="AN90" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="91">
@@ -11640,6 +11912,9 @@
       <c r="AN91" t="n">
         <v>0.28</v>
       </c>
+      <c r="AO91" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11768,6 +12043,9 @@
       <c r="AN92" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO92" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11896,6 +12174,9 @@
       <c r="AN93" t="n">
         <v>0.36</v>
       </c>
+      <c r="AO93" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12024,11 +12305,14 @@
       <c r="AN94" t="n">
         <v>0.49</v>
       </c>
+      <c r="AO94" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Obavy z epidemie, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -12043,7 +12327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12247,6 +12531,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12368,7 +12657,10 @@
         <v>1767</v>
       </c>
       <c r="AM2" t="n">
-        <v>1815</v>
+        <v>1848</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1786</v>
       </c>
     </row>
     <row r="3">
@@ -12491,7 +12783,10 @@
         <v>406</v>
       </c>
       <c r="AM3" t="n">
-        <v>412</v>
+        <v>419</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="4">
@@ -12574,7 +12869,10 @@
         <v>1361</v>
       </c>
       <c r="AM4" t="n">
-        <v>1403</v>
+        <v>1429</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1420</v>
       </c>
     </row>
     <row r="5">
@@ -12697,7 +12995,10 @@
         <v>298</v>
       </c>
       <c r="AM5" t="n">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>275</v>
       </c>
     </row>
     <row r="6">
@@ -12780,7 +13081,10 @@
         <v>774</v>
       </c>
       <c r="AM6" t="n">
-        <v>797</v>
+        <v>815</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>808</v>
       </c>
     </row>
     <row r="7">
@@ -12903,7 +13207,10 @@
         <v>108</v>
       </c>
       <c r="AM7" t="n">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -12986,7 +13293,10 @@
         <v>587</v>
       </c>
       <c r="AM8" t="n">
-        <v>605</v>
+        <v>614</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>612</v>
       </c>
     </row>
     <row r="9">
@@ -13109,7 +13419,10 @@
         <v>442</v>
       </c>
       <c r="AM9" t="n">
-        <v>444</v>
+        <v>451</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>445</v>
       </c>
     </row>
     <row r="10">
@@ -13232,7 +13545,10 @@
         <v>647</v>
       </c>
       <c r="AM10" t="n">
-        <v>676</v>
+        <v>689</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>663</v>
       </c>
     </row>
     <row r="11">
@@ -13355,7 +13671,10 @@
         <v>678</v>
       </c>
       <c r="AM11" t="n">
-        <v>695</v>
+        <v>708</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>678</v>
       </c>
     </row>
     <row r="12">
@@ -13478,7 +13797,10 @@
         <v>579</v>
       </c>
       <c r="AM12" t="n">
-        <v>666</v>
+        <v>683</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>682</v>
       </c>
     </row>
     <row r="13">
@@ -13601,7 +13923,10 @@
         <v>447</v>
       </c>
       <c r="AM13" t="n">
-        <v>500</v>
+        <v>504</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>421</v>
       </c>
     </row>
     <row r="14">
@@ -13724,7 +14049,10 @@
         <v>741</v>
       </c>
       <c r="AM14" t="n">
-        <v>649</v>
+        <v>661</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>683</v>
       </c>
     </row>
     <row r="15">
@@ -13847,7 +14175,10 @@
         <v>862</v>
       </c>
       <c r="AM15" t="n">
-        <v>880</v>
+        <v>893</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>863</v>
       </c>
     </row>
     <row r="16">
@@ -13970,7 +14301,10 @@
         <v>905</v>
       </c>
       <c r="AM16" t="n">
-        <v>935</v>
+        <v>955</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>923</v>
       </c>
     </row>
     <row r="17">
@@ -14093,7 +14427,10 @@
         <v>916</v>
       </c>
       <c r="AM17" t="n">
-        <v>952</v>
+        <v>973</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>931</v>
       </c>
     </row>
     <row r="18">
@@ -14216,6 +14553,9 @@
         <v>413</v>
       </c>
       <c r="AM18" t="n">
+        <v>416</v>
+      </c>
+      <c r="AN18" t="n">
         <v>413</v>
       </c>
     </row>
@@ -14339,7 +14679,10 @@
         <v>205</v>
       </c>
       <c r="AM19" t="n">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="20">
@@ -14462,7 +14805,10 @@
         <v>233</v>
       </c>
       <c r="AM20" t="n">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="21">
@@ -14585,7 +14931,10 @@
         <v>43</v>
       </c>
       <c r="AM21" t="n">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -14708,7 +15057,10 @@
         <v>144</v>
       </c>
       <c r="AM22" t="n">
-        <v>153</v>
+        <v>157</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="23">
@@ -14831,7 +15183,10 @@
         <v>85</v>
       </c>
       <c r="AM23" t="n">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -14956,6 +15311,9 @@
       <c r="AM24" t="n">
         <v>13</v>
       </c>
+      <c r="AN24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15077,7 +15435,10 @@
         <v>240</v>
       </c>
       <c r="AM25" t="n">
-        <v>254</v>
+        <v>258</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -15200,7 +15561,10 @@
         <v>483</v>
       </c>
       <c r="AM26" t="n">
-        <v>486</v>
+        <v>496</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>490</v>
       </c>
     </row>
     <row r="27">
@@ -15323,7 +15687,10 @@
         <v>228</v>
       </c>
       <c r="AM27" t="n">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="28">
@@ -15446,7 +15813,10 @@
         <v>331</v>
       </c>
       <c r="AM28" t="n">
-        <v>338</v>
+        <v>341</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>322</v>
       </c>
     </row>
     <row r="29">
@@ -15569,7 +15939,10 @@
         <v>304</v>
       </c>
       <c r="AM29" t="n">
-        <v>310</v>
+        <v>316</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="30">
@@ -15692,6 +16065,9 @@
         <v>215</v>
       </c>
       <c r="AM30" t="n">
+        <v>216</v>
+      </c>
+      <c r="AN30" t="n">
         <v>212</v>
       </c>
     </row>
@@ -15815,7 +16191,10 @@
         <v>316</v>
       </c>
       <c r="AM31" t="n">
-        <v>338</v>
+        <v>348</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>341</v>
       </c>
     </row>
     <row r="32">
@@ -15938,13 +16317,16 @@
         <v>373</v>
       </c>
       <c r="AM32" t="n">
-        <v>385</v>
+        <v>392</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Obavy z epidemie, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -15985,6 +16367,7 @@
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
